--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="133">
   <si>
     <t>No</t>
   </si>
@@ -933,15 +933,9 @@
     <t>Team Employee</t>
   </si>
   <si>
-    <t>WebApi without validation</t>
-  </si>
-  <si>
     <t>WebApi Testing using Postman</t>
   </si>
   <si>
-    <t>8.5 hours</t>
-  </si>
-  <si>
     <t>Testing was performed. Put method was not working properly</t>
   </si>
   <si>
@@ -960,9 +954,6 @@
     <t>4 hours</t>
   </si>
   <si>
-    <t>WebApi was Consumed in Controller</t>
-  </si>
-  <si>
     <t>Creating Views corresponding to different functionalities</t>
   </si>
   <si>
@@ -975,7 +966,70 @@
     <t>45 mins</t>
   </si>
   <si>
-    <t xml:space="preserve">All the views were tested properly. Error </t>
+    <t>All the views were tested properly. Error was found(Resource file not found, Data was not extracted from SQL)</t>
+  </si>
+  <si>
+    <t>Modifying the MVC</t>
+  </si>
+  <si>
+    <t>2.5 hours</t>
+  </si>
+  <si>
+    <t>Validation was applied and tested</t>
+  </si>
+  <si>
+    <t>Validation was applied on the views accordingly and tested</t>
+  </si>
+  <si>
+    <t>US.204</t>
+  </si>
+  <si>
+    <t>US.205</t>
+  </si>
+  <si>
+    <t>Team Customer</t>
+  </si>
+  <si>
+    <t>Team Admin</t>
+  </si>
+  <si>
+    <t>Testing was performed. Sql Exception was observed while testing post method</t>
+  </si>
+  <si>
+    <t>Errors were resolved from models</t>
+  </si>
+  <si>
+    <t>5.5 hours</t>
+  </si>
+  <si>
+    <t>WebApi without validation(less hours due to L1 Mock)</t>
+  </si>
+  <si>
+    <t>WebApi was Consumed in Controller(less hours due to MS Certification Mock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing was performed. </t>
+  </si>
+  <si>
+    <t>Errors were resolved. Logic used in Login page was not working</t>
+  </si>
+  <si>
+    <t>US.206</t>
+  </si>
+  <si>
+    <t>Integration of work of all the Teams in one project</t>
+  </si>
+  <si>
+    <t>2.75 hours</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>Bringing all the controllers in same MVC</t>
+  </si>
+  <si>
+    <t>Final Testing was Performed</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1508,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1586,9 +1640,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,21 +1661,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1745,18 +1781,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1764,23 +1788,8 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1806,6 +1815,105 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1821,15 +1929,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1937,7 +2036,7 @@
         <xdr:cNvPr id="2262" name="Picture 2" descr="oracle-logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000D6080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D6080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +2088,7 @@
         <xdr:cNvPr id="2263" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000D7080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D7080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2145,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2218,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,23 +2611,23 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
-      <c r="D1" s="132" t="str">
+      <c r="D1" s="150" t="str">
         <f>Document_Ref</f>
         <v>&lt;Document Reference Number&gt;</v>
       </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="131">
+      <c r="E2" s="149">
         <f ca="1">NOW()</f>
-        <v>43776.805866782408</v>
-      </c>
-      <c r="F2" s="131"/>
+        <v>43776.840115624997</v>
+      </c>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
@@ -2859,11 +2958,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
-      <c r="E2" s="131">
+      <c r="E2" s="149">
         <f ca="1">NOW()</f>
-        <v>43776.805866782408</v>
-      </c>
-      <c r="F2" s="131"/>
+        <v>43776.840115624997</v>
+      </c>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
@@ -2900,52 +2999,52 @@
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="A7" s="60">
         <v>1</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67">
+      <c r="A8" s="61">
         <v>2</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67">
+      <c r="A9" s="61">
         <v>3</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="66"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67">
+      <c r="A10" s="61">
         <v>4</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="66"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
@@ -2976,28 +3075,28 @@
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="37" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
@@ -3011,7 +3110,7 @@
     <row r="19" spans="2:2" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="2:2" s="65" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:2" s="59" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
     </row>
@@ -3080,11 +3179,11 @@
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="131">
+      <c r="E2" s="149">
         <f ca="1">NOW()</f>
-        <v>43776.805866782408</v>
-      </c>
-      <c r="F2" s="131"/>
+        <v>43776.840115624997</v>
+      </c>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
@@ -3351,2368 +3450,2368 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="68" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="69" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="69" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="63" customWidth="1"/>
     <col min="6" max="7" width="10.85546875" style="13" customWidth="1"/>
-    <col min="8" max="9" width="13.5703125" style="68" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="69" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="102" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" style="68" customWidth="1"/>
-    <col min="13" max="13" width="18" style="107" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="107" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14" style="69" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="74" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5703125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="96" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="62" customWidth="1"/>
+    <col min="13" max="13" width="18" style="101" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="101" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="63" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="68" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" style="13" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" style="13" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="74" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="69"/>
-    <col min="21" max="16384" width="9.140625" style="74"/>
+    <col min="19" max="19" width="17.5703125" style="68" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="63"/>
+    <col min="21" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="73"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="67"/>
       <c r="L1" s="36"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="53"/>
-      <c r="S1" s="58"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="52"/>
+      <c r="S1" s="57"/>
     </row>
     <row r="2" spans="1:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="78"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="72"/>
     </row>
     <row r="3" spans="1:20" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="49" t="s">
         <v>56</v>
       </c>
       <c r="R3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="75"/>
+      <c r="T3" s="69"/>
     </row>
     <row r="4" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71">
+      <c r="A4" s="65">
         <v>1</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="82"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="47"/>
       <c r="L4" s="36"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="75"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71">
+      <c r="A5" s="65">
         <v>2</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="82"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="47"/>
       <c r="L5" s="36"/>
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="53"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="52"/>
       <c r="R5" s="47"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="75"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71">
+      <c r="A6" s="65">
         <v>3</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="82"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="47"/>
       <c r="L6" s="36"/>
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="53"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="47"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="75"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="69"/>
     </row>
     <row r="7" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71">
+      <c r="A7" s="65">
         <v>4</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="82"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="47"/>
       <c r="L7" s="36"/>
       <c r="M7" s="47"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="53"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="47"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="75"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="69"/>
     </row>
     <row r="8" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71">
+      <c r="A8" s="65">
         <v>5</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="82"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="47"/>
       <c r="L8" s="36"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="53"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="47"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="75"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="69"/>
     </row>
     <row r="9" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71">
+      <c r="A9" s="65">
         <v>6</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="82"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="47"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="53"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="52"/>
       <c r="R9" s="47"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="75"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="69"/>
     </row>
     <row r="10" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71">
+      <c r="A10" s="65">
         <v>7</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="82"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="47"/>
       <c r="L10" s="36"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="75"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="69"/>
     </row>
     <row r="11" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71">
+      <c r="A11" s="65">
         <v>8</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="82"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="47"/>
       <c r="L11" s="36"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="75"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="69"/>
     </row>
     <row r="12" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="71">
+      <c r="A12" s="65">
         <v>9</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="82"/>
+      <c r="J12" s="76"/>
       <c r="K12" s="47"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="75"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="69"/>
     </row>
     <row r="13" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71">
+      <c r="A13" s="65">
         <v>10</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="82"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="47"/>
       <c r="L13" s="36"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="75"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="69"/>
     </row>
     <row r="14" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71">
+      <c r="A14" s="65">
         <v>11</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="83"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
       <c r="L14" s="36"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="83"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="47"/>
       <c r="P14" s="47"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="55"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="54"/>
       <c r="S14" s="47"/>
-      <c r="T14" s="75"/>
+      <c r="T14" s="69"/>
     </row>
     <row r="15" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71">
+      <c r="A15" s="65">
         <v>12</v>
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="83"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="36"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="83"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="77"/>
       <c r="O15" s="47"/>
       <c r="P15" s="47"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="55"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="54"/>
       <c r="S15" s="47"/>
-      <c r="T15" s="75"/>
-    </row>
-    <row r="16" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71">
+      <c r="T15" s="69"/>
+    </row>
+    <row r="16" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65">
         <v>13</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="82"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="47"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="36"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
       <c r="O16" s="47"/>
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
-      <c r="R16" s="55"/>
+      <c r="R16" s="54"/>
       <c r="S16" s="47"/>
-      <c r="T16" s="84"/>
-    </row>
-    <row r="17" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71">
+      <c r="T16" s="78"/>
+    </row>
+    <row r="17" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="65">
         <v>14</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="82"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="47"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="36"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
       <c r="O17" s="47"/>
       <c r="P17" s="47"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="55"/>
+      <c r="R17" s="54"/>
       <c r="S17" s="47"/>
-      <c r="T17" s="84"/>
-    </row>
-    <row r="18" spans="1:20" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="112" t="s">
+      <c r="T17" s="78"/>
+    </row>
+    <row r="18" spans="1:20" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
-      <c r="S18" s="114"/>
-    </row>
-    <row r="19" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71">
+      <c r="B18" s="102"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+    </row>
+    <row r="19" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65">
         <v>15</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="82"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="47"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="36"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
       <c r="O19" s="47"/>
       <c r="P19" s="47"/>
       <c r="Q19" s="47"/>
-      <c r="R19" s="55"/>
+      <c r="R19" s="54"/>
       <c r="S19" s="47"/>
-      <c r="T19" s="84"/>
-    </row>
-    <row r="20" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71">
+      <c r="T19" s="78"/>
+    </row>
+    <row r="20" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65">
         <v>16</v>
       </c>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="82"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="47"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
-      <c r="J20" s="82"/>
+      <c r="J20" s="76"/>
       <c r="K20" s="47"/>
       <c r="L20" s="36"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
       <c r="O20" s="47"/>
       <c r="P20" s="47"/>
       <c r="Q20" s="47"/>
-      <c r="R20" s="53"/>
+      <c r="R20" s="52"/>
       <c r="S20" s="47"/>
-      <c r="T20" s="84"/>
-    </row>
-    <row r="21" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71">
+      <c r="T20" s="78"/>
+    </row>
+    <row r="21" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65">
         <v>17</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="82"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="47"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="83"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
       <c r="L21" s="36"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
       <c r="O21" s="47"/>
       <c r="P21" s="47"/>
       <c r="Q21" s="47"/>
-      <c r="R21" s="53"/>
+      <c r="R21" s="52"/>
       <c r="S21" s="47"/>
-      <c r="T21" s="84"/>
-    </row>
-    <row r="22" spans="1:20" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71">
+      <c r="T21" s="78"/>
+    </row>
+    <row r="22" spans="1:20" s="84" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="65">
         <v>18</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="89"/>
-    </row>
-    <row r="23" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71">
+      <c r="D22" s="81"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="83"/>
+    </row>
+    <row r="23" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65">
         <v>19</v>
       </c>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="82"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="47"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="83"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="36"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
       <c r="O23" s="47"/>
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="53"/>
+      <c r="R23" s="52"/>
       <c r="S23" s="47"/>
-      <c r="T23" s="84"/>
-    </row>
-    <row r="24" spans="1:20" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71">
+      <c r="T23" s="78"/>
+    </row>
+    <row r="24" spans="1:20" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65">
         <v>20</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="82"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="47"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="83"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="36"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
       <c r="O24" s="47"/>
       <c r="P24" s="47"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="53"/>
+      <c r="R24" s="52"/>
       <c r="S24" s="47"/>
-      <c r="T24" s="84"/>
-    </row>
-    <row r="25" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="71">
+      <c r="T24" s="78"/>
+    </row>
+    <row r="25" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="65">
         <v>21</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="82"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="47"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
       <c r="L25" s="36"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
       <c r="O25" s="47"/>
       <c r="P25" s="47"/>
       <c r="Q25" s="47"/>
-      <c r="R25" s="53"/>
+      <c r="R25" s="52"/>
       <c r="S25" s="47"/>
-      <c r="T25" s="84"/>
-    </row>
-    <row r="26" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71">
+      <c r="T25" s="78"/>
+    </row>
+    <row r="26" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="65">
         <v>22</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="82"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="47"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
       <c r="L26" s="36"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
       <c r="O26" s="47"/>
       <c r="P26" s="47"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="53"/>
+      <c r="R26" s="52"/>
       <c r="S26" s="47"/>
-      <c r="T26" s="84"/>
-    </row>
-    <row r="27" spans="1:20" s="52" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71">
+      <c r="T26" s="78"/>
+    </row>
+    <row r="27" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="65">
         <v>23</v>
       </c>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
       <c r="L27" s="36"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
       <c r="O27" s="47"/>
       <c r="P27" s="47"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="53"/>
+      <c r="R27" s="52"/>
       <c r="S27" s="47"/>
-      <c r="T27" s="84"/>
-    </row>
-    <row r="28" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71">
+      <c r="T27" s="78"/>
+    </row>
+    <row r="28" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="65">
         <v>24</v>
       </c>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="36"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
       <c r="O28" s="47"/>
       <c r="P28" s="47"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="53"/>
+      <c r="R28" s="52"/>
       <c r="S28" s="47"/>
-      <c r="T28" s="84"/>
-    </row>
-    <row r="29" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71">
+      <c r="T28" s="78"/>
+    </row>
+    <row r="29" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="65">
         <v>25</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="36"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
       <c r="O29" s="47"/>
       <c r="P29" s="47"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="53"/>
+      <c r="R29" s="52"/>
       <c r="S29" s="47"/>
-      <c r="T29" s="84"/>
-    </row>
-    <row r="30" spans="1:20" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71">
+      <c r="T29" s="78"/>
+    </row>
+    <row r="30" spans="1:20" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="65">
         <v>26</v>
       </c>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="36"/>
       <c r="I30" s="36"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
       <c r="L30" s="36"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
       <c r="O30" s="47"/>
       <c r="P30" s="47"/>
       <c r="Q30" s="47"/>
-      <c r="R30" s="53"/>
+      <c r="R30" s="52"/>
       <c r="S30" s="47"/>
-      <c r="T30" s="84"/>
-    </row>
-    <row r="31" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71">
+      <c r="T30" s="78"/>
+    </row>
+    <row r="31" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="65">
         <v>27</v>
       </c>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
       <c r="L31" s="36"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="47"/>
       <c r="P31" s="47"/>
       <c r="Q31" s="47"/>
-      <c r="R31" s="53"/>
+      <c r="R31" s="52"/>
       <c r="S31" s="47"/>
-      <c r="T31" s="84"/>
-    </row>
-    <row r="32" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71">
+      <c r="T31" s="78"/>
+    </row>
+    <row r="32" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="65">
         <v>28</v>
       </c>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
       <c r="L32" s="36"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
       <c r="O32" s="47"/>
       <c r="P32" s="47"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="53"/>
+      <c r="R32" s="52"/>
       <c r="S32" s="47"/>
-      <c r="T32" s="84"/>
-    </row>
-    <row r="33" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71">
+      <c r="T32" s="78"/>
+    </row>
+    <row r="33" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="65">
         <v>29</v>
       </c>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="83"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
       <c r="L33" s="36"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
       <c r="O33" s="47"/>
       <c r="P33" s="47"/>
       <c r="Q33" s="47"/>
-      <c r="R33" s="53"/>
+      <c r="R33" s="52"/>
       <c r="S33" s="47"/>
-      <c r="T33" s="84"/>
-    </row>
-    <row r="34" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71">
+      <c r="T33" s="78"/>
+    </row>
+    <row r="34" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="65">
         <v>30</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="83"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
       <c r="L34" s="36"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
       <c r="O34" s="47"/>
       <c r="P34" s="47"/>
       <c r="Q34" s="47"/>
-      <c r="R34" s="53"/>
+      <c r="R34" s="52"/>
       <c r="S34" s="47"/>
-      <c r="T34" s="84"/>
-    </row>
-    <row r="36" spans="1:20" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="71">
+      <c r="T34" s="78"/>
+    </row>
+    <row r="36" spans="1:20" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="65">
         <v>31</v>
       </c>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="83"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77"/>
       <c r="L36" s="36"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
       <c r="O36" s="47"/>
       <c r="P36" s="47"/>
       <c r="Q36" s="47"/>
-      <c r="R36" s="53"/>
+      <c r="R36" s="52"/>
       <c r="S36" s="47"/>
-      <c r="T36" s="84"/>
-    </row>
-    <row r="37" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="71">
+      <c r="T36" s="78"/>
+    </row>
+    <row r="37" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="65">
         <v>32</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="83"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="77"/>
       <c r="L37" s="36"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
       <c r="Q37" s="47"/>
-      <c r="R37" s="53"/>
+      <c r="R37" s="52"/>
       <c r="S37" s="47"/>
-      <c r="T37" s="84"/>
-    </row>
-    <row r="38" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71">
+      <c r="T37" s="78"/>
+    </row>
+    <row r="38" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="65">
         <v>33</v>
       </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="77"/>
       <c r="O38" s="47"/>
       <c r="P38" s="47"/>
       <c r="Q38" s="47"/>
-      <c r="R38" s="53"/>
+      <c r="R38" s="52"/>
       <c r="S38" s="47"/>
-      <c r="T38" s="84"/>
-    </row>
-    <row r="39" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="71">
+      <c r="T38" s="78"/>
+    </row>
+    <row r="39" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="65">
         <v>34</v>
       </c>
       <c r="B39" s="36"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="94"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="88"/>
       <c r="L39" s="36"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
       <c r="O39" s="47"/>
       <c r="P39" s="47"/>
       <c r="Q39" s="47"/>
-      <c r="R39" s="53"/>
+      <c r="R39" s="52"/>
       <c r="S39" s="47"/>
-      <c r="T39" s="84"/>
-    </row>
-    <row r="40" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="71">
+      <c r="T39" s="78"/>
+    </row>
+    <row r="40" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="65">
         <v>35</v>
       </c>
       <c r="B40" s="36"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="94"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="88"/>
       <c r="L40" s="36"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
       <c r="O40" s="47"/>
       <c r="P40" s="47"/>
       <c r="Q40" s="47"/>
-      <c r="R40" s="53"/>
+      <c r="R40" s="52"/>
       <c r="S40" s="47"/>
-      <c r="T40" s="84"/>
-    </row>
-    <row r="41" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="71">
+      <c r="T40" s="78"/>
+    </row>
+    <row r="41" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="65">
         <v>36</v>
       </c>
       <c r="B41" s="36"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="94"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="88"/>
       <c r="L41" s="36"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
       <c r="O41" s="47"/>
       <c r="P41" s="47"/>
       <c r="Q41" s="47"/>
-      <c r="R41" s="53"/>
+      <c r="R41" s="52"/>
       <c r="S41" s="47"/>
-      <c r="T41" s="84"/>
-    </row>
-    <row r="42" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="71">
+      <c r="T41" s="78"/>
+    </row>
+    <row r="42" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="65">
         <v>37</v>
       </c>
       <c r="B42" s="36"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="82"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="47"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="94"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="88"/>
       <c r="L42" s="36"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
       <c r="O42" s="47"/>
       <c r="P42" s="47"/>
       <c r="Q42" s="47"/>
-      <c r="R42" s="53"/>
+      <c r="R42" s="52"/>
       <c r="S42" s="47"/>
-      <c r="T42" s="84"/>
-    </row>
-    <row r="43" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="71">
+      <c r="T42" s="78"/>
+    </row>
+    <row r="43" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="65">
         <v>38</v>
       </c>
       <c r="B43" s="36"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="94"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="88"/>
       <c r="L43" s="36"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
       <c r="O43" s="47"/>
       <c r="P43" s="47"/>
       <c r="Q43" s="47"/>
-      <c r="R43" s="53"/>
+      <c r="R43" s="52"/>
       <c r="S43" s="47"/>
-      <c r="T43" s="84"/>
-    </row>
-    <row r="44" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71">
+      <c r="T43" s="78"/>
+    </row>
+    <row r="44" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="65">
         <v>39</v>
       </c>
       <c r="B44" s="36"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="94"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="88"/>
       <c r="L44" s="36"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
       <c r="O44" s="47"/>
       <c r="P44" s="47"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="53"/>
+      <c r="R44" s="52"/>
       <c r="S44" s="47"/>
-      <c r="T44" s="84"/>
-    </row>
-    <row r="45" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="71">
+      <c r="T44" s="78"/>
+    </row>
+    <row r="45" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="65">
         <v>40</v>
       </c>
       <c r="B45" s="36"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="82"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="76"/>
       <c r="K45" s="47"/>
       <c r="L45" s="36"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
       <c r="O45" s="47"/>
       <c r="P45" s="47"/>
       <c r="Q45" s="47"/>
-      <c r="R45" s="53"/>
+      <c r="R45" s="52"/>
       <c r="S45" s="47"/>
-      <c r="T45" s="84"/>
-    </row>
-    <row r="46" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="71">
+      <c r="T45" s="78"/>
+    </row>
+    <row r="46" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="65">
         <v>41</v>
       </c>
       <c r="B46" s="36"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="82"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="76"/>
       <c r="K46" s="47"/>
       <c r="L46" s="36"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
       <c r="O46" s="47"/>
       <c r="P46" s="47"/>
       <c r="Q46" s="47"/>
-      <c r="R46" s="53"/>
+      <c r="R46" s="52"/>
       <c r="S46" s="47"/>
-      <c r="T46" s="84"/>
-    </row>
-    <row r="47" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="71">
+      <c r="T46" s="78"/>
+    </row>
+    <row r="47" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="65">
         <v>42</v>
       </c>
       <c r="B47" s="36"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="82"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="76"/>
       <c r="K47" s="47"/>
       <c r="L47" s="36"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
       <c r="O47" s="47"/>
       <c r="P47" s="47"/>
       <c r="Q47" s="47"/>
-      <c r="R47" s="53"/>
+      <c r="R47" s="52"/>
       <c r="S47" s="47"/>
-      <c r="T47" s="84"/>
-    </row>
-    <row r="48" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="71">
+      <c r="T47" s="78"/>
+    </row>
+    <row r="48" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="65">
         <v>43</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="82"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="76"/>
       <c r="K48" s="47"/>
       <c r="L48" s="36"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
       <c r="O48" s="47"/>
       <c r="P48" s="47"/>
       <c r="Q48" s="47"/>
-      <c r="R48" s="53"/>
+      <c r="R48" s="52"/>
       <c r="S48" s="47"/>
-      <c r="T48" s="84"/>
-    </row>
-    <row r="49" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="71">
+      <c r="T48" s="78"/>
+    </row>
+    <row r="49" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="65">
         <v>44</v>
       </c>
       <c r="B49" s="36"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="82"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="76"/>
       <c r="K49" s="47"/>
       <c r="L49" s="36"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
       <c r="O49" s="47"/>
       <c r="P49" s="47"/>
       <c r="Q49" s="47"/>
-      <c r="R49" s="53"/>
+      <c r="R49" s="52"/>
       <c r="S49" s="47"/>
-      <c r="T49" s="84"/>
-    </row>
-    <row r="50" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="71">
+      <c r="T49" s="78"/>
+    </row>
+    <row r="50" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="65">
         <v>45</v>
       </c>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
-      <c r="J50" s="82"/>
+      <c r="J50" s="76"/>
       <c r="K50" s="36"/>
       <c r="L50" s="36"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
       <c r="O50" s="47"/>
       <c r="P50" s="47"/>
       <c r="Q50" s="47"/>
-      <c r="R50" s="53"/>
+      <c r="R50" s="52"/>
       <c r="S50" s="47"/>
-      <c r="T50" s="84"/>
-    </row>
-    <row r="51" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="71">
+      <c r="T50" s="78"/>
+    </row>
+    <row r="51" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="65">
         <v>46</v>
       </c>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="95"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
       <c r="O51" s="47"/>
       <c r="P51" s="47"/>
       <c r="Q51" s="47"/>
-      <c r="R51" s="53"/>
+      <c r="R51" s="52"/>
       <c r="S51" s="47"/>
-      <c r="T51" s="84"/>
-    </row>
-    <row r="52" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="71"/>
+      <c r="T51" s="78"/>
+    </row>
+    <row r="52" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="65"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
-      <c r="J52" s="82"/>
+      <c r="J52" s="76"/>
       <c r="K52" s="47"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
       <c r="O52" s="47"/>
       <c r="P52" s="47"/>
       <c r="Q52" s="47"/>
-      <c r="R52" s="53"/>
+      <c r="R52" s="52"/>
       <c r="S52" s="47"/>
-      <c r="T52" s="84"/>
-    </row>
-    <row r="53" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="71"/>
+      <c r="T52" s="78"/>
+    </row>
+    <row r="53" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="65"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
-      <c r="J53" s="82"/>
+      <c r="J53" s="76"/>
       <c r="K53" s="47"/>
       <c r="L53" s="36"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
       <c r="O53" s="47"/>
       <c r="P53" s="47"/>
       <c r="Q53" s="47"/>
-      <c r="R53" s="53"/>
+      <c r="R53" s="52"/>
       <c r="S53" s="47"/>
-      <c r="T53" s="84"/>
-    </row>
-    <row r="54" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="71"/>
+      <c r="T53" s="78"/>
+    </row>
+    <row r="54" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="65"/>
       <c r="B54" s="36"/>
       <c r="C54" s="36"/>
-      <c r="D54" s="82"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
       <c r="H54" s="36"/>
       <c r="I54" s="36"/>
-      <c r="J54" s="82"/>
+      <c r="J54" s="76"/>
       <c r="K54" s="36"/>
       <c r="L54" s="36"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
       <c r="O54" s="47"/>
       <c r="P54" s="47"/>
       <c r="Q54" s="47"/>
-      <c r="R54" s="53"/>
+      <c r="R54" s="52"/>
       <c r="S54" s="47"/>
-      <c r="T54" s="84"/>
-    </row>
-    <row r="55" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="71"/>
+      <c r="T54" s="78"/>
+    </row>
+    <row r="55" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="65"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
       <c r="O55" s="47"/>
       <c r="P55" s="47"/>
       <c r="Q55" s="47"/>
-      <c r="R55" s="53"/>
+      <c r="R55" s="52"/>
       <c r="S55" s="47"/>
-      <c r="T55" s="84"/>
+      <c r="T55" s="78"/>
     </row>
     <row r="56" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="96"/>
-      <c r="B56" s="97"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="99"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="99"/>
-      <c r="N56" s="99"/>
-      <c r="O56" s="57"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="93"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="56"/>
     </row>
     <row r="57" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="96"/>
-      <c r="B57" s="97"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="99"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="68"/>
-      <c r="M57" s="99"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="58"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="91"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="93"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="62"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="57"/>
     </row>
     <row r="58" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="96"/>
-      <c r="B58" s="97"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="99"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="68"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="99"/>
-      <c r="O58" s="58"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="91"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="93"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="62"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="57"/>
     </row>
     <row r="59" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="96"/>
-      <c r="B59" s="97"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="99"/>
-      <c r="H59" s="98"/>
-      <c r="I59" s="98"/>
-      <c r="J59" s="84"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="99"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="58"/>
-    </row>
-    <row r="60" spans="1:20" s="52" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="101"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="99"/>
+      <c r="A59" s="90"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="93"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="93"/>
+      <c r="N59" s="93"/>
+      <c r="O59" s="57"/>
+    </row>
+    <row r="60" spans="1:20" s="51" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="95"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="93"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="84"/>
-      <c r="K60" s="102"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="99"/>
-      <c r="N60" s="99"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="93"/>
+      <c r="N60" s="93"/>
       <c r="O60" s="47"/>
       <c r="R60" s="13"/>
-      <c r="T60" s="84"/>
-    </row>
-    <row r="61" spans="1:20" s="52" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="101"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="99"/>
+      <c r="T60" s="78"/>
+    </row>
+    <row r="61" spans="1:20" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="95"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="93"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="102"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="93"/>
+      <c r="N61" s="93"/>
       <c r="O61" s="47"/>
       <c r="R61" s="13"/>
-      <c r="T61" s="84"/>
-    </row>
-    <row r="62" spans="1:20" s="52" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="101"/>
-      <c r="B62" s="97"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="99"/>
+      <c r="T61" s="78"/>
+    </row>
+    <row r="62" spans="1:20" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="95"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="93"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
       <c r="O62" s="47"/>
       <c r="R62" s="13"/>
-      <c r="T62" s="84"/>
-    </row>
-    <row r="63" spans="1:20" s="52" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="101"/>
-      <c r="B63" s="97"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="99"/>
+      <c r="T62" s="78"/>
+    </row>
+    <row r="63" spans="1:20" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="95"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="93"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
       <c r="O63" s="47"/>
       <c r="R63" s="13"/>
-      <c r="T63" s="84"/>
-    </row>
-    <row r="64" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="101"/>
-      <c r="B64" s="97"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="99"/>
+      <c r="T63" s="78"/>
+    </row>
+    <row r="64" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="95"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="93"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="102"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="99"/>
-      <c r="N64" s="99"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="93"/>
+      <c r="N64" s="93"/>
       <c r="O64" s="47"/>
       <c r="R64" s="13"/>
-      <c r="T64" s="84"/>
-    </row>
-    <row r="65" spans="1:20" s="52" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="101"/>
-      <c r="B65" s="97"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="99"/>
+      <c r="T64" s="78"/>
+    </row>
+    <row r="65" spans="1:20" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="95"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="93"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="102"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="99"/>
-      <c r="N65" s="99"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
       <c r="O65" s="47"/>
       <c r="R65" s="13"/>
-      <c r="T65" s="84"/>
-    </row>
-    <row r="66" spans="1:20" s="52" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="101"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="99"/>
+      <c r="T65" s="78"/>
+    </row>
+    <row r="66" spans="1:20" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="95"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="93"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="99"/>
-      <c r="N66" s="99"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="93"/>
       <c r="O66" s="47"/>
       <c r="R66" s="13"/>
-      <c r="T66" s="84"/>
-    </row>
-    <row r="67" spans="1:20" s="52" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="101"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="99"/>
+      <c r="T66" s="78"/>
+    </row>
+    <row r="67" spans="1:20" s="51" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="95"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="93"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="102"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="99"/>
-      <c r="N67" s="99"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
       <c r="O67" s="47"/>
       <c r="R67" s="13"/>
-      <c r="T67" s="84"/>
-    </row>
-    <row r="68" spans="1:20" s="52" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="101"/>
-      <c r="B68" s="97"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="99"/>
+      <c r="T67" s="78"/>
+    </row>
+    <row r="68" spans="1:20" s="51" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="95"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="93"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="84"/>
-      <c r="K68" s="102"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="99"/>
-      <c r="N68" s="99"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="93"/>
+      <c r="N68" s="93"/>
       <c r="O68" s="47"/>
       <c r="R68" s="13"/>
-      <c r="T68" s="84"/>
-    </row>
-    <row r="69" spans="1:20" s="52" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="101"/>
-      <c r="B69" s="97"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="99"/>
+      <c r="T68" s="78"/>
+    </row>
+    <row r="69" spans="1:20" s="51" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="95"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="93"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="84"/>
-      <c r="K69" s="102"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="99"/>
-      <c r="N69" s="99"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="93"/>
+      <c r="N69" s="93"/>
       <c r="O69" s="47"/>
       <c r="R69" s="13"/>
-      <c r="T69" s="84"/>
-    </row>
-    <row r="70" spans="1:20" s="52" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="101"/>
-      <c r="B70" s="97"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="99"/>
+      <c r="T69" s="78"/>
+    </row>
+    <row r="70" spans="1:20" s="51" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="95"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="93"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="84"/>
-      <c r="K70" s="102"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="93"/>
+      <c r="N70" s="93"/>
       <c r="O70" s="47"/>
       <c r="R70" s="13"/>
-      <c r="T70" s="84"/>
-    </row>
-    <row r="71" spans="1:20" s="52" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="101"/>
-      <c r="B71" s="97"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="99"/>
+      <c r="T70" s="78"/>
+    </row>
+    <row r="71" spans="1:20" s="51" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="95"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="93"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="102"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="99"/>
-      <c r="N71" s="99"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="93"/>
+      <c r="N71" s="93"/>
       <c r="O71" s="47"/>
       <c r="R71" s="13"/>
-      <c r="T71" s="84"/>
-    </row>
-    <row r="72" spans="1:20" s="52" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="101"/>
-      <c r="B72" s="97"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="99"/>
+      <c r="T71" s="78"/>
+    </row>
+    <row r="72" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="95"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="93"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="84"/>
-      <c r="K72" s="102"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="99"/>
-      <c r="N72" s="99"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="93"/>
+      <c r="N72" s="93"/>
       <c r="O72" s="47"/>
       <c r="R72" s="13"/>
-      <c r="T72" s="84"/>
-    </row>
-    <row r="73" spans="1:20" s="52" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="101"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="99"/>
+      <c r="T72" s="78"/>
+    </row>
+    <row r="73" spans="1:20" s="51" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="95"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="93"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="98"/>
-      <c r="I73" s="98"/>
-      <c r="J73" s="101"/>
-      <c r="K73" s="98"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="99"/>
-      <c r="N73" s="99"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="92"/>
+      <c r="L73" s="92"/>
+      <c r="M73" s="93"/>
+      <c r="N73" s="93"/>
       <c r="O73" s="47"/>
       <c r="R73" s="13"/>
-      <c r="T73" s="84"/>
-    </row>
-    <row r="74" spans="1:20" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="101"/>
-      <c r="B74" s="97"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="99"/>
+      <c r="T73" s="78"/>
+    </row>
+    <row r="74" spans="1:20" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="95"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="93"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="102"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="99"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="93"/>
+      <c r="N74" s="93"/>
       <c r="O74" s="47"/>
       <c r="R74" s="13"/>
-      <c r="T74" s="84"/>
-    </row>
-    <row r="75" spans="1:20" s="52" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="101"/>
-      <c r="B75" s="97"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="99"/>
+      <c r="T74" s="78"/>
+    </row>
+    <row r="75" spans="1:20" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="95"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="93"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="84"/>
-      <c r="K75" s="102"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="99"/>
-      <c r="N75" s="99"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="96"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="93"/>
+      <c r="N75" s="93"/>
       <c r="O75" s="47"/>
       <c r="R75" s="13"/>
-      <c r="T75" s="84"/>
-    </row>
-    <row r="76" spans="1:20" s="52" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="101"/>
-      <c r="B76" s="97"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="99"/>
+      <c r="T75" s="78"/>
+    </row>
+    <row r="76" spans="1:20" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="95"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="93"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="102"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="99"/>
-      <c r="N76" s="99"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="96"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="93"/>
+      <c r="N76" s="93"/>
       <c r="O76" s="47"/>
       <c r="R76" s="13"/>
-      <c r="T76" s="84"/>
-    </row>
-    <row r="77" spans="1:20" s="52" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="101"/>
-      <c r="B77" s="97"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="99"/>
+      <c r="T76" s="78"/>
+    </row>
+    <row r="77" spans="1:20" s="51" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="95"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="93"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="84"/>
-      <c r="K77" s="102"/>
-      <c r="L77" s="68"/>
-      <c r="M77" s="99"/>
-      <c r="N77" s="99"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="93"/>
+      <c r="N77" s="93"/>
       <c r="O77" s="47"/>
       <c r="R77" s="13"/>
-      <c r="T77" s="84"/>
-    </row>
-    <row r="78" spans="1:20" s="52" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="101"/>
-      <c r="B78" s="97"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="99"/>
+      <c r="T77" s="78"/>
+    </row>
+    <row r="78" spans="1:20" s="51" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="95"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="93"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="84"/>
-      <c r="K78" s="102"/>
-      <c r="L78" s="68"/>
-      <c r="M78" s="99"/>
-      <c r="N78" s="99"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="93"/>
+      <c r="N78" s="93"/>
       <c r="O78" s="47"/>
       <c r="R78" s="13"/>
-      <c r="T78" s="84"/>
-    </row>
-    <row r="79" spans="1:20" s="52" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="101"/>
-      <c r="B79" s="97"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="99"/>
+      <c r="T78" s="78"/>
+    </row>
+    <row r="79" spans="1:20" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="95"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="93"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="68"/>
-      <c r="I79" s="68"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="102"/>
-      <c r="L79" s="68"/>
-      <c r="M79" s="99"/>
-      <c r="N79" s="99"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="78"/>
+      <c r="K79" s="96"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="93"/>
+      <c r="N79" s="93"/>
       <c r="O79" s="47"/>
       <c r="R79" s="13"/>
-      <c r="T79" s="84"/>
-    </row>
-    <row r="80" spans="1:20" s="52" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="101"/>
-      <c r="B80" s="97"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="99"/>
+      <c r="T79" s="78"/>
+    </row>
+    <row r="80" spans="1:20" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="95"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="93"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="102"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="99"/>
-      <c r="N80" s="99"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="78"/>
+      <c r="K80" s="96"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="93"/>
+      <c r="N80" s="93"/>
       <c r="O80" s="47"/>
       <c r="R80" s="13"/>
-      <c r="T80" s="84"/>
-    </row>
-    <row r="81" spans="1:20" s="52" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="101"/>
-      <c r="B81" s="97"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="99"/>
+      <c r="T80" s="78"/>
+    </row>
+    <row r="81" spans="1:20" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="95"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="95"/>
+      <c r="E81" s="93"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="98"/>
-      <c r="I81" s="98"/>
-      <c r="J81" s="101"/>
-      <c r="K81" s="98"/>
-      <c r="L81" s="98"/>
-      <c r="M81" s="99"/>
-      <c r="N81" s="99"/>
+      <c r="H81" s="92"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="95"/>
+      <c r="K81" s="92"/>
+      <c r="L81" s="92"/>
+      <c r="M81" s="93"/>
+      <c r="N81" s="93"/>
       <c r="O81" s="47"/>
       <c r="R81" s="13"/>
-      <c r="T81" s="84"/>
-    </row>
-    <row r="82" spans="1:20" s="52" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="101"/>
-      <c r="B82" s="97"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="99"/>
+      <c r="T81" s="78"/>
+    </row>
+    <row r="82" spans="1:20" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="95"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="93"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="84"/>
-      <c r="K82" s="102"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="99"/>
-      <c r="N82" s="99"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="96"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="93"/>
+      <c r="N82" s="93"/>
       <c r="O82" s="47"/>
       <c r="R82" s="13"/>
-      <c r="T82" s="84"/>
-    </row>
-    <row r="83" spans="1:20" s="52" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="101"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="99"/>
+      <c r="T82" s="78"/>
+    </row>
+    <row r="83" spans="1:20" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="95"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="62"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="93"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="84"/>
-      <c r="K83" s="102"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="99"/>
-      <c r="N83" s="99"/>
+      <c r="H83" s="62"/>
+      <c r="I83" s="62"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="96"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="93"/>
+      <c r="N83" s="93"/>
       <c r="O83" s="47"/>
       <c r="R83" s="13"/>
-      <c r="T83" s="84"/>
-    </row>
-    <row r="84" spans="1:20" s="52" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="101"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="99"/>
+      <c r="T83" s="78"/>
+    </row>
+    <row r="84" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="95"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="93"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="98"/>
-      <c r="I84" s="98"/>
-      <c r="J84" s="101"/>
-      <c r="K84" s="98"/>
-      <c r="L84" s="98"/>
-      <c r="M84" s="99"/>
-      <c r="N84" s="99"/>
+      <c r="H84" s="92"/>
+      <c r="I84" s="92"/>
+      <c r="J84" s="95"/>
+      <c r="K84" s="92"/>
+      <c r="L84" s="92"/>
+      <c r="M84" s="93"/>
+      <c r="N84" s="93"/>
       <c r="O84" s="47"/>
       <c r="R84" s="13"/>
-      <c r="T84" s="84"/>
-    </row>
-    <row r="85" spans="1:20" s="52" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="101"/>
-      <c r="B85" s="97"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="99"/>
+      <c r="T84" s="78"/>
+    </row>
+    <row r="85" spans="1:20" s="51" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="95"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="93"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="84"/>
-      <c r="K85" s="102"/>
-      <c r="L85" s="68"/>
-      <c r="M85" s="99"/>
-      <c r="N85" s="99"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="96"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="93"/>
+      <c r="N85" s="93"/>
       <c r="O85" s="47"/>
       <c r="R85" s="13"/>
-      <c r="T85" s="84"/>
-    </row>
-    <row r="86" spans="1:20" s="52" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="101"/>
-      <c r="B86" s="97"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="99"/>
+      <c r="T85" s="78"/>
+    </row>
+    <row r="86" spans="1:20" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="95"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="93"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="84"/>
-      <c r="K86" s="102"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="99"/>
-      <c r="N86" s="99"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="96"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="93"/>
+      <c r="N86" s="93"/>
       <c r="O86" s="47"/>
       <c r="R86" s="13"/>
-      <c r="T86" s="84"/>
-    </row>
-    <row r="87" spans="1:20" s="52" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="101"/>
-      <c r="B87" s="97"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="99"/>
+      <c r="T86" s="78"/>
+    </row>
+    <row r="87" spans="1:20" s="51" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="95"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="93"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="84"/>
-      <c r="K87" s="102"/>
-      <c r="L87" s="68"/>
-      <c r="M87" s="99"/>
-      <c r="N87" s="99"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="96"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="93"/>
+      <c r="N87" s="93"/>
       <c r="O87" s="47"/>
       <c r="R87" s="13"/>
-      <c r="T87" s="84"/>
-    </row>
-    <row r="88" spans="1:20" s="52" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="101"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="99"/>
+      <c r="T87" s="78"/>
+    </row>
+    <row r="88" spans="1:20" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="95"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="93"/>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="84"/>
-      <c r="K88" s="102"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="99"/>
-      <c r="N88" s="99"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="78"/>
+      <c r="K88" s="96"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="93"/>
       <c r="O88" s="47"/>
       <c r="R88" s="13"/>
-      <c r="T88" s="84"/>
-    </row>
-    <row r="89" spans="1:20" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="101"/>
-      <c r="B89" s="97"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="103"/>
+      <c r="T88" s="78"/>
+    </row>
+    <row r="89" spans="1:20" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="95"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="97"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
-      <c r="J89" s="84"/>
-      <c r="K89" s="102"/>
-      <c r="L89" s="68"/>
-      <c r="M89" s="103"/>
-      <c r="N89" s="103"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="78"/>
+      <c r="K89" s="96"/>
+      <c r="L89" s="62"/>
+      <c r="M89" s="97"/>
+      <c r="N89" s="97"/>
       <c r="O89" s="47"/>
       <c r="R89" s="13"/>
-      <c r="T89" s="84"/>
-    </row>
-    <row r="90" spans="1:20" s="52" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="101"/>
-      <c r="B90" s="97"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="104"/>
+      <c r="T89" s="78"/>
+    </row>
+    <row r="90" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="95"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="98"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="84"/>
-      <c r="K90" s="102"/>
-      <c r="L90" s="68"/>
-      <c r="M90" s="105"/>
-      <c r="N90" s="105"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="62"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="96"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="99"/>
+      <c r="N90" s="99"/>
       <c r="O90" s="47"/>
       <c r="R90" s="13"/>
-      <c r="T90" s="84"/>
-    </row>
-    <row r="91" spans="1:20" s="52" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="101"/>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="104"/>
+      <c r="T90" s="78"/>
+    </row>
+    <row r="91" spans="1:20" s="51" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="95"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="98"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="97"/>
-      <c r="I91" s="97"/>
-      <c r="J91" s="84"/>
-      <c r="K91" s="102"/>
-      <c r="L91" s="68"/>
-      <c r="M91" s="105"/>
-      <c r="N91" s="105"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="96"/>
+      <c r="L91" s="62"/>
+      <c r="M91" s="99"/>
+      <c r="N91" s="99"/>
       <c r="O91" s="47"/>
       <c r="R91" s="13"/>
-      <c r="T91" s="84"/>
-    </row>
-    <row r="92" spans="1:20" s="52" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="101"/>
-      <c r="B92" s="97"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="99"/>
+      <c r="T91" s="78"/>
+    </row>
+    <row r="92" spans="1:20" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="95"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="93"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="97"/>
-      <c r="I92" s="97"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="102"/>
-      <c r="L92" s="68"/>
-      <c r="M92" s="99"/>
-      <c r="N92" s="99"/>
+      <c r="H92" s="91"/>
+      <c r="I92" s="91"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="96"/>
+      <c r="L92" s="62"/>
+      <c r="M92" s="93"/>
+      <c r="N92" s="93"/>
       <c r="O92" s="47"/>
       <c r="R92" s="13"/>
-      <c r="T92" s="84"/>
-    </row>
-    <row r="93" spans="1:20" s="52" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="101"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="99"/>
+      <c r="T92" s="78"/>
+    </row>
+    <row r="93" spans="1:20" s="51" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="95"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="93"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="97"/>
-      <c r="I93" s="97"/>
-      <c r="J93" s="84"/>
-      <c r="K93" s="102"/>
-      <c r="L93" s="68"/>
-      <c r="M93" s="99"/>
-      <c r="N93" s="99"/>
+      <c r="H93" s="91"/>
+      <c r="I93" s="91"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="96"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="93"/>
+      <c r="N93" s="93"/>
       <c r="O93" s="47"/>
       <c r="R93" s="13"/>
-      <c r="T93" s="84"/>
-    </row>
-    <row r="94" spans="1:20" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="68"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="97"/>
+      <c r="T93" s="78"/>
+    </row>
+    <row r="94" spans="1:20" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="62"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="91"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="97"/>
-      <c r="I94" s="97"/>
-      <c r="K94" s="102"/>
-      <c r="L94" s="68"/>
-      <c r="M94" s="100"/>
-      <c r="N94" s="100"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="91"/>
+      <c r="K94" s="96"/>
+      <c r="L94" s="62"/>
+      <c r="M94" s="94"/>
+      <c r="N94" s="94"/>
       <c r="R94" s="13"/>
     </row>
-    <row r="95" spans="1:20" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="97"/>
+    <row r="95" spans="1:20" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="62"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="91"/>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="97"/>
-      <c r="I95" s="97"/>
-      <c r="K95" s="102"/>
-      <c r="L95" s="68"/>
-      <c r="M95" s="100"/>
-      <c r="N95" s="100"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="91"/>
+      <c r="K95" s="96"/>
+      <c r="L95" s="62"/>
+      <c r="M95" s="94"/>
+      <c r="N95" s="94"/>
       <c r="R95" s="13"/>
     </row>
-    <row r="96" spans="1:20" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="68"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="97"/>
+    <row r="96" spans="1:20" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="62"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="91"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="97"/>
-      <c r="I96" s="97"/>
-      <c r="K96" s="102"/>
-      <c r="L96" s="68"/>
-      <c r="M96" s="100"/>
-      <c r="N96" s="100"/>
+      <c r="H96" s="91"/>
+      <c r="I96" s="91"/>
+      <c r="K96" s="96"/>
+      <c r="L96" s="62"/>
+      <c r="M96" s="94"/>
+      <c r="N96" s="94"/>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="1:19" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="68"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="97"/>
+    <row r="97" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="62"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="91"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="97"/>
-      <c r="I97" s="97"/>
-      <c r="K97" s="102"/>
-      <c r="L97" s="68"/>
-      <c r="M97" s="100"/>
-      <c r="N97" s="100"/>
+      <c r="H97" s="91"/>
+      <c r="I97" s="91"/>
+      <c r="K97" s="96"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="94"/>
+      <c r="N97" s="94"/>
       <c r="R97" s="13"/>
     </row>
-    <row r="98" spans="1:19" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="68"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
+    <row r="98" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="62"/>
+      <c r="B98" s="62"/>
+      <c r="C98" s="62"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
-      <c r="K98" s="102"/>
-      <c r="L98" s="68"/>
-      <c r="M98" s="100"/>
-      <c r="N98" s="100"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="62"/>
+      <c r="K98" s="96"/>
+      <c r="L98" s="62"/>
+      <c r="M98" s="94"/>
+      <c r="N98" s="94"/>
       <c r="R98" s="13"/>
     </row>
-    <row r="99" spans="1:19" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
+    <row r="99" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="62"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="62"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="K99" s="102"/>
-      <c r="L99" s="68"/>
-      <c r="M99" s="100"/>
-      <c r="N99" s="100"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="62"/>
+      <c r="K99" s="96"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="94"/>
+      <c r="N99" s="94"/>
       <c r="R99" s="13"/>
     </row>
-    <row r="100" spans="1:19" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="68"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
+    <row r="100" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="62"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="68"/>
-      <c r="K100" s="102"/>
-      <c r="L100" s="68"/>
-      <c r="M100" s="100"/>
-      <c r="N100" s="100"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="62"/>
+      <c r="K100" s="96"/>
+      <c r="L100" s="62"/>
+      <c r="M100" s="94"/>
+      <c r="N100" s="94"/>
       <c r="R100" s="13"/>
     </row>
-    <row r="101" spans="1:19" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
+    <row r="101" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="62"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
-      <c r="H101" s="68"/>
-      <c r="I101" s="68"/>
-      <c r="K101" s="102"/>
-      <c r="L101" s="68"/>
-      <c r="M101" s="100"/>
-      <c r="N101" s="100"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="62"/>
+      <c r="K101" s="96"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="94"/>
+      <c r="N101" s="94"/>
       <c r="R101" s="13"/>
     </row>
-    <row r="102" spans="1:19" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="68"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="68"/>
+    <row r="102" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="62"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="68"/>
-      <c r="K102" s="102"/>
-      <c r="L102" s="68"/>
-      <c r="M102" s="100"/>
-      <c r="N102" s="100"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="K102" s="96"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="94"/>
+      <c r="N102" s="94"/>
       <c r="R102" s="13"/>
     </row>
-    <row r="103" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="68"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
+    <row r="103" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="62"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
-      <c r="H103" s="68"/>
-      <c r="I103" s="68"/>
-      <c r="J103" s="84"/>
-      <c r="K103" s="102"/>
-      <c r="L103" s="68"/>
-      <c r="M103" s="100"/>
-      <c r="N103" s="100"/>
-      <c r="P103" s="74"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="96"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="94"/>
+      <c r="N103" s="94"/>
+      <c r="P103" s="68"/>
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
-      <c r="S103" s="74"/>
-    </row>
-    <row r="104" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="68"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
+      <c r="S103" s="68"/>
+    </row>
+    <row r="104" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="62"/>
+      <c r="B104" s="62"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
-      <c r="H104" s="68"/>
-      <c r="I104" s="68"/>
-      <c r="J104" s="84"/>
-      <c r="K104" s="102"/>
-      <c r="L104" s="68"/>
-      <c r="M104" s="100"/>
-      <c r="N104" s="100"/>
-      <c r="P104" s="74"/>
+      <c r="H104" s="62"/>
+      <c r="I104" s="62"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="96"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="94"/>
+      <c r="N104" s="94"/>
+      <c r="P104" s="68"/>
       <c r="Q104" s="13"/>
       <c r="R104" s="13"/>
-      <c r="S104" s="74"/>
-    </row>
-    <row r="105" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="68"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
+      <c r="S104" s="68"/>
+    </row>
+    <row r="105" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="62"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="78"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
-      <c r="H105" s="68"/>
-      <c r="I105" s="68"/>
-      <c r="J105" s="84"/>
-      <c r="K105" s="102"/>
-      <c r="L105" s="68"/>
-      <c r="M105" s="100"/>
-      <c r="N105" s="100"/>
-      <c r="P105" s="74"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="96"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="94"/>
+      <c r="N105" s="94"/>
+      <c r="P105" s="68"/>
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
-      <c r="S105" s="74"/>
-    </row>
-    <row r="106" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
+      <c r="S105" s="68"/>
+    </row>
+    <row r="106" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="62"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
-      <c r="H106" s="68"/>
-      <c r="I106" s="68"/>
-      <c r="J106" s="84"/>
-      <c r="K106" s="102"/>
-      <c r="L106" s="68"/>
-      <c r="M106" s="100"/>
-      <c r="N106" s="100"/>
-      <c r="P106" s="74"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="96"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="94"/>
+      <c r="N106" s="94"/>
+      <c r="P106" s="68"/>
       <c r="Q106" s="13"/>
       <c r="R106" s="13"/>
-      <c r="S106" s="74"/>
-    </row>
-    <row r="107" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="68"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="84"/>
+      <c r="S106" s="68"/>
+    </row>
+    <row r="107" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="62"/>
+      <c r="B107" s="62"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
-      <c r="H107" s="68"/>
-      <c r="I107" s="68"/>
-      <c r="J107" s="84"/>
-      <c r="K107" s="102"/>
-      <c r="L107" s="68"/>
-      <c r="M107" s="100"/>
-      <c r="N107" s="100"/>
-      <c r="P107" s="74"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="62"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="96"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="94"/>
+      <c r="N107" s="94"/>
+      <c r="P107" s="68"/>
       <c r="Q107" s="13"/>
       <c r="R107" s="13"/>
-      <c r="S107" s="74"/>
-    </row>
-    <row r="108" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="68"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="84"/>
+      <c r="S107" s="68"/>
+    </row>
+    <row r="108" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="62"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="68"/>
-      <c r="I108" s="68"/>
-      <c r="J108" s="84"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="68"/>
-      <c r="M108" s="100"/>
-      <c r="N108" s="100"/>
-      <c r="P108" s="74"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="96"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="94"/>
+      <c r="N108" s="94"/>
+      <c r="P108" s="68"/>
       <c r="Q108" s="13"/>
       <c r="R108" s="13"/>
-      <c r="S108" s="74"/>
-    </row>
-    <row r="109" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="68"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="106"/>
+      <c r="S108" s="68"/>
+    </row>
+    <row r="109" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="62"/>
+      <c r="B109" s="62"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="100"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
-      <c r="H109" s="68"/>
-      <c r="I109" s="68"/>
-      <c r="J109" s="84"/>
-      <c r="K109" s="102"/>
-      <c r="L109" s="68"/>
-      <c r="M109" s="100"/>
-      <c r="N109" s="100"/>
-      <c r="P109" s="74"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="78"/>
+      <c r="K109" s="96"/>
+      <c r="L109" s="62"/>
+      <c r="M109" s="94"/>
+      <c r="N109" s="94"/>
+      <c r="P109" s="68"/>
       <c r="Q109" s="13"/>
       <c r="R109" s="13"/>
-      <c r="S109" s="74"/>
-    </row>
-    <row r="110" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="68"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
+      <c r="S109" s="68"/>
+    </row>
+    <row r="110" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="62"/>
+      <c r="B110" s="62"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="78"/>
+      <c r="E110" s="78"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-      <c r="H110" s="68"/>
-      <c r="I110" s="68"/>
-      <c r="J110" s="84"/>
-      <c r="K110" s="102"/>
-      <c r="L110" s="68"/>
-      <c r="M110" s="100"/>
-      <c r="N110" s="100"/>
-      <c r="P110" s="74"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="62"/>
+      <c r="J110" s="78"/>
+      <c r="K110" s="96"/>
+      <c r="L110" s="62"/>
+      <c r="M110" s="94"/>
+      <c r="N110" s="94"/>
+      <c r="P110" s="68"/>
       <c r="Q110" s="13"/>
       <c r="R110" s="13"/>
-      <c r="S110" s="74"/>
-    </row>
-    <row r="111" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="68"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
+      <c r="S110" s="68"/>
+    </row>
+    <row r="111" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="62"/>
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="78"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-      <c r="H111" s="68"/>
-      <c r="I111" s="68"/>
-      <c r="J111" s="84"/>
-      <c r="K111" s="102"/>
-      <c r="L111" s="68"/>
-      <c r="M111" s="100"/>
-      <c r="N111" s="100"/>
-      <c r="P111" s="74"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="78"/>
+      <c r="K111" s="96"/>
+      <c r="L111" s="62"/>
+      <c r="M111" s="94"/>
+      <c r="N111" s="94"/>
+      <c r="P111" s="68"/>
       <c r="Q111" s="13"/>
       <c r="R111" s="13"/>
-      <c r="S111" s="74"/>
-    </row>
-    <row r="112" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="68"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="84"/>
+      <c r="S111" s="68"/>
+    </row>
+    <row r="112" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="62"/>
+      <c r="B112" s="62"/>
+      <c r="C112" s="62"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
-      <c r="H112" s="68"/>
-      <c r="I112" s="68"/>
-      <c r="J112" s="84"/>
-      <c r="K112" s="102"/>
-      <c r="L112" s="68"/>
-      <c r="M112" s="100"/>
-      <c r="N112" s="100"/>
-      <c r="P112" s="74"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="62"/>
+      <c r="J112" s="78"/>
+      <c r="K112" s="96"/>
+      <c r="L112" s="62"/>
+      <c r="M112" s="94"/>
+      <c r="N112" s="94"/>
+      <c r="P112" s="68"/>
       <c r="Q112" s="13"/>
       <c r="R112" s="13"/>
-      <c r="S112" s="74"/>
+      <c r="S112" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5724,23 +5823,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="13"/>
-    <col min="4" max="4" width="28.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="13" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="130" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="145"/>
+    <col min="4" max="4" width="28.85546875" style="133" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="145" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="145" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="145" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="145" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" style="145" customWidth="1"/>
+    <col min="11" max="11" width="57.140625" style="59" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="115" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="13" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" style="13" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" style="13" customWidth="1"/>
@@ -5749,72 +5848,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="122"/>
+      <c r="A1" s="139"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-    </row>
-    <row r="3" spans="1:16" s="51" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A2" s="146"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+    </row>
+    <row r="3" spans="1:16" s="50" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="124" t="s">
+      <c r="L3" s="109" t="s">
         <v>72</v>
       </c>
       <c r="M3" s="48" t="s">
@@ -5830,1083 +5929,1892 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="137">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="119">
         <v>1</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="120">
         <v>1</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="136">
+      <c r="F4" s="117">
         <v>43476.541666666664</v>
       </c>
-      <c r="G4" s="136">
+      <c r="G4" s="117">
         <v>43476.625</v>
       </c>
-      <c r="H4" s="136">
+      <c r="H4" s="117">
         <v>43476.625</v>
       </c>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="137" t="s">
+      <c r="J4" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="137"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137">
+      <c r="A5" s="119"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119">
         <v>2</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="136">
+      <c r="F5" s="117">
         <v>43476.625</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="117">
         <v>43476.6875</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="117">
         <v>43476.6875</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="125"/>
+      <c r="L5" s="110"/>
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137">
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119">
         <v>3</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="117">
         <v>43476.6875</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="117">
         <v>43476.708333333336</v>
       </c>
-      <c r="H6" s="136">
+      <c r="H6" s="117">
         <v>43476.708333333336</v>
       </c>
-      <c r="I6" s="137" t="s">
+      <c r="I6" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="137" t="s">
+      <c r="J6" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="L6" s="125"/>
+      <c r="L6" s="110"/>
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
     </row>
-    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="137">
-        <v>2</v>
-      </c>
-      <c r="B7" s="137" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="137">
-        <v>1</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="136">
-        <v>43507.375</v>
-      </c>
-      <c r="G7" s="136">
-        <v>43507.416666666664</v>
-      </c>
-      <c r="H7" s="136">
-        <v>43507.416666666664</v>
-      </c>
-      <c r="I7" s="137" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="125"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137">
+      <c r="A8" s="119">
         <v>2</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="58" t="s">
+      <c r="B8" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="119">
+        <v>1</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="136">
+      <c r="F8" s="117">
+        <v>43507.375</v>
+      </c>
+      <c r="G8" s="117">
         <v>43507.416666666664</v>
       </c>
-      <c r="G8" s="136">
-        <v>43507.5</v>
-      </c>
-      <c r="H8" s="136">
-        <v>43507.520833333336</v>
-      </c>
-      <c r="I8" s="137" t="s">
+      <c r="H8" s="117">
+        <v>43507.416666666664</v>
+      </c>
+      <c r="I8" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="137" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="125"/>
+      <c r="J8" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="110"/>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137">
-        <v>3</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="58" t="s">
+      <c r="A9" s="119"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119">
+        <v>2</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="136">
-        <v>43507.5625</v>
-      </c>
-      <c r="G9" s="136">
-        <v>43507.604166666664</v>
-      </c>
-      <c r="H9" s="136">
-        <v>43507.645833333336</v>
-      </c>
-      <c r="I9" s="137" t="s">
+      <c r="F9" s="117">
+        <v>43507.416666666664</v>
+      </c>
+      <c r="G9" s="117">
+        <v>43507.5</v>
+      </c>
+      <c r="H9" s="117">
+        <v>43507.520833333336</v>
+      </c>
+      <c r="I9" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="137" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="125"/>
+      <c r="J9" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="110"/>
       <c r="M9" s="47"/>
       <c r="N9" s="47"/>
       <c r="O9" s="47"/>
       <c r="P9" s="47"/>
     </row>
-    <row r="10" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137">
-        <v>4</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="58" t="s">
+    <row r="10" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="119"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119">
+        <v>3</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="136">
+      <c r="F10" s="117">
+        <v>43507.5625</v>
+      </c>
+      <c r="G10" s="117">
+        <v>43507.604166666664</v>
+      </c>
+      <c r="H10" s="117">
         <v>43507.645833333336</v>
       </c>
-      <c r="G10" s="136">
-        <v>43507.677083333336</v>
-      </c>
-      <c r="H10" s="136">
-        <v>43507.6875</v>
-      </c>
-      <c r="I10" s="137" t="s">
+      <c r="I10" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="125"/>
+      <c r="J10" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="110"/>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
       <c r="O10" s="47"/>
       <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="137">
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119">
+        <v>4</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="117">
+        <v>43507.645833333336</v>
+      </c>
+      <c r="G11" s="117">
+        <v>43507.677083333336</v>
+      </c>
+      <c r="H11" s="117">
+        <v>43507.6875</v>
+      </c>
+      <c r="I11" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="110"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+    </row>
+    <row r="13" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="119">
         <v>3</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B13" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="137">
+      <c r="C13" s="119">
         <v>1</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D13" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E13" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="136">
+      <c r="F13" s="117">
         <v>43507.6875</v>
       </c>
-      <c r="G11" s="136">
+      <c r="G13" s="117">
         <v>43566.645833333336</v>
       </c>
-      <c r="H11" s="136">
+      <c r="H13" s="117">
         <v>43566.708333333336</v>
       </c>
-      <c r="I11" s="137" t="s">
+      <c r="I13" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="137" t="s">
+      <c r="J13" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="110"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119">
+        <v>2</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="117">
+        <v>43566.708333333336</v>
+      </c>
+      <c r="G14" s="117">
+        <v>43566.75</v>
+      </c>
+      <c r="H14" s="117">
+        <v>43566.75</v>
+      </c>
+      <c r="I14" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="110"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119">
+        <v>3</v>
+      </c>
+      <c r="D15" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="125"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-    </row>
-    <row r="12" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="137"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137">
-        <v>2</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="58" t="s">
+      <c r="E15" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="136">
-        <v>43566.708333333336</v>
-      </c>
-      <c r="G12" s="136">
-        <v>43566.75</v>
-      </c>
-      <c r="H12" s="136">
-        <v>43566.75</v>
-      </c>
-      <c r="I12" s="137" t="s">
+      <c r="F15" s="117">
+        <v>43596.375</v>
+      </c>
+      <c r="G15" s="117">
+        <v>43596.520833333336</v>
+      </c>
+      <c r="H15" s="117">
+        <v>43596.541666666664</v>
+      </c>
+      <c r="I15" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="58" t="s">
+      <c r="J15" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="125"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="137"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137">
-        <v>3</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="58" t="s">
+      <c r="L15" s="110"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+    </row>
+    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119">
+        <v>4</v>
+      </c>
+      <c r="D16" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="136">
-        <v>43596.375</v>
-      </c>
-      <c r="G13" s="136">
-        <v>43596.520833333336</v>
-      </c>
-      <c r="H13" s="136">
-        <v>43596.541666666664</v>
-      </c>
-      <c r="I13" s="137" t="s">
+      <c r="F16" s="117">
+        <v>43596.666666666664</v>
+      </c>
+      <c r="G16" s="117">
+        <v>43596.75</v>
+      </c>
+      <c r="H16" s="117">
+        <v>43596.75</v>
+      </c>
+      <c r="I16" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="137" t="s">
+      <c r="J16" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="110"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+    </row>
+    <row r="17" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119">
+        <v>5</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="117">
+        <v>43627.375</v>
+      </c>
+      <c r="G17" s="117">
+        <v>43627.541666666664</v>
+      </c>
+      <c r="H17" s="117">
+        <v>43627.5625</v>
+      </c>
+      <c r="I17" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" s="125"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-    </row>
-    <row r="14" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="137"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137">
-        <v>4</v>
-      </c>
-      <c r="D14" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="58" t="s">
+      <c r="K17" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="111"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+    </row>
+    <row r="18" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119">
+        <v>6</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="136">
-        <v>43596.583333333336</v>
-      </c>
-      <c r="G14" s="136">
-        <v>43596.75</v>
-      </c>
-      <c r="H14" s="136">
-        <v>43596.75</v>
-      </c>
-      <c r="I14" s="137" t="s">
+      <c r="F18" s="117">
+        <v>43627.604166666664</v>
+      </c>
+      <c r="G18" s="117">
+        <v>43627.645833333336</v>
+      </c>
+      <c r="H18" s="117">
+        <v>43627.635416666664</v>
+      </c>
+      <c r="I18" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="125"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-    </row>
-    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="137"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137">
-        <v>5</v>
-      </c>
-      <c r="D15" s="83" t="s">
+      <c r="J18" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="K18" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="111"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119">
+        <v>7</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="136">
-        <v>43627.375</v>
-      </c>
-      <c r="G15" s="136">
-        <v>43627.541666666664</v>
-      </c>
-      <c r="H15" s="136">
-        <v>43627.5625</v>
-      </c>
-      <c r="I15" s="137" t="s">
+      <c r="F19" s="117">
+        <v>43627.635416666664</v>
+      </c>
+      <c r="G19" s="117">
+        <v>43627.75</v>
+      </c>
+      <c r="H19" s="117">
+        <v>43627.75</v>
+      </c>
+      <c r="I19" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="108" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="126"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-    </row>
-    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="137"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137">
-        <v>6</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="58" t="s">
+      <c r="J19" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="111"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+    </row>
+    <row r="20" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119">
+        <v>8</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="136">
-        <v>43627.604166666664</v>
-      </c>
-      <c r="G16" s="136">
-        <v>43627.645833333336</v>
-      </c>
-      <c r="H16" s="136">
-        <v>43627.635416666664</v>
-      </c>
-      <c r="I16" s="137" t="s">
+      <c r="F20" s="117">
+        <v>43657.375</v>
+      </c>
+      <c r="G20" s="117">
+        <v>43657.9375</v>
+      </c>
+      <c r="H20" s="117">
+        <v>43657.9375</v>
+      </c>
+      <c r="I20" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="108" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="108" t="s">
+      <c r="J20" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="L16" s="126"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="137"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137">
-        <v>7</v>
-      </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="137"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-    </row>
-    <row r="19" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="108"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-    </row>
-    <row r="20" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-    </row>
-    <row r="21" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L20" s="111"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+    </row>
+    <row r="21" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="119"/>
       <c r="B21" s="119"/>
       <c r="C21" s="119"/>
-      <c r="D21" s="119" t="s">
-        <v>69</v>
-      </c>
+      <c r="D21" s="122"/>
       <c r="E21" s="119"/>
       <c r="F21" s="119"/>
       <c r="G21" s="119"/>
       <c r="H21" s="119"/>
       <c r="I21" s="119"/>
       <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+    </row>
+    <row r="22" spans="1:16" s="64" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="119">
+        <v>4</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="119">
+        <v>1</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="117">
+        <v>43507.6875</v>
+      </c>
+      <c r="G22" s="117">
+        <v>43566.645833333336</v>
+      </c>
+      <c r="H22" s="117">
+        <v>43566.666666666664</v>
+      </c>
+      <c r="I22" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="K22" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="110"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+    </row>
+    <row r="23" spans="1:16" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="119"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119">
+        <v>2</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="117">
+        <v>43566.666666666664</v>
+      </c>
+      <c r="G23" s="117">
+        <v>43566.75</v>
+      </c>
+      <c r="H23" s="117">
+        <v>43566.75</v>
+      </c>
+      <c r="I23" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="110"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119">
+        <v>3</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="117">
+        <v>43596.375</v>
+      </c>
+      <c r="G24" s="117">
+        <v>43596.520833333336</v>
+      </c>
+      <c r="H24" s="117">
+        <v>43596.541666666664</v>
+      </c>
+      <c r="I24" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="118" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="110"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+    </row>
+    <row r="25" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="119"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119">
+        <v>4</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="117">
+        <v>43596.666666666664</v>
+      </c>
+      <c r="G25" s="117">
+        <v>43596.75</v>
+      </c>
+      <c r="H25" s="117">
+        <v>43596.75</v>
+      </c>
+      <c r="I25" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="110"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+    </row>
+    <row r="26" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="119"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119">
+        <v>5</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="117">
+        <v>43627.375</v>
+      </c>
+      <c r="G26" s="117">
+        <v>43627.541666666664</v>
+      </c>
+      <c r="H26" s="117">
+        <v>43627.5625</v>
+      </c>
+      <c r="I26" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" s="111"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+    </row>
+    <row r="27" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="119"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119">
+        <v>6</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="117">
+        <v>43627.604166666664</v>
+      </c>
+      <c r="G27" s="117">
+        <v>43627.645833333336</v>
+      </c>
+      <c r="H27" s="117">
+        <v>43627.645833333336</v>
+      </c>
+      <c r="I27" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="111"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="108"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="108"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119">
+        <v>7</v>
+      </c>
+      <c r="D28" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="117">
+        <v>43627.645833333336</v>
+      </c>
+      <c r="G28" s="117">
+        <v>43627.75</v>
+      </c>
+      <c r="H28" s="117">
+        <v>43627.75</v>
+      </c>
+      <c r="I28" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="111"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+    </row>
+    <row r="29" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119">
+        <v>8</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="117">
+        <v>43657.375</v>
+      </c>
+      <c r="G29" s="117">
+        <v>43657.9375</v>
+      </c>
+      <c r="H29" s="117">
+        <v>43657.9375</v>
+      </c>
+      <c r="I29" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="K29" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="111"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+    </row>
+    <row r="31" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="119">
+        <v>5</v>
+      </c>
+      <c r="B31" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="119">
+        <v>1</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="117">
+        <v>43507.6875</v>
+      </c>
+      <c r="G31" s="117">
+        <v>43566.645833333336</v>
+      </c>
+      <c r="H31" s="117">
+        <v>43566.708333333336</v>
+      </c>
+      <c r="I31" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="119" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="110"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="119">
+        <v>2</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="117">
+        <v>43566.708333333336</v>
+      </c>
+      <c r="G32" s="117">
+        <v>43566.75</v>
+      </c>
+      <c r="H32" s="117">
+        <v>43566.75</v>
+      </c>
+      <c r="I32" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="L32" s="110"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="108"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="108"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119">
+        <v>3</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="117">
+        <v>43596.375</v>
+      </c>
+      <c r="G33" s="117">
+        <v>43596.520833333336</v>
+      </c>
+      <c r="H33" s="117">
+        <v>43596.541666666664</v>
+      </c>
+      <c r="I33" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="110"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+    </row>
+    <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119">
+        <v>4</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="117">
+        <v>43596.666666666664</v>
+      </c>
+      <c r="G34" s="117">
+        <v>43596.75</v>
+      </c>
+      <c r="H34" s="117">
+        <v>43596.75</v>
+      </c>
+      <c r="I34" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="118" t="s">
+        <v>124</v>
+      </c>
+      <c r="L34" s="110"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+    </row>
+    <row r="35" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119">
+        <v>5</v>
+      </c>
+      <c r="D35" s="121" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="117">
+        <v>43627.375</v>
+      </c>
+      <c r="G35" s="117">
+        <v>43627.541666666664</v>
+      </c>
+      <c r="H35" s="117">
+        <v>43627.5625</v>
+      </c>
+      <c r="I35" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="111"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+    </row>
+    <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="119"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="119">
+        <v>6</v>
+      </c>
+      <c r="D36" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="117">
+        <v>43627.604166666664</v>
+      </c>
+      <c r="G36" s="117">
+        <v>43627.645833333336</v>
+      </c>
+      <c r="H36" s="117">
+        <v>43627.635416666664</v>
+      </c>
+      <c r="I36" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="111"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="108"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119">
+        <v>7</v>
+      </c>
+      <c r="D37" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="117">
+        <v>43627.635416666664</v>
+      </c>
+      <c r="G37" s="117">
+        <v>43627.75</v>
+      </c>
+      <c r="H37" s="117">
+        <v>43627.75</v>
+      </c>
+      <c r="I37" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="L37" s="111"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+    </row>
+    <row r="38" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="119"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119">
+        <v>8</v>
+      </c>
+      <c r="D38" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="117">
+        <v>43657.375</v>
+      </c>
+      <c r="G38" s="117">
+        <v>43657.4375</v>
+      </c>
+      <c r="H38" s="117">
+        <v>43657.4375</v>
+      </c>
+      <c r="I38" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="111"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
+      <c r="A39" s="142"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+    </row>
+    <row r="40" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="142">
+        <v>6</v>
+      </c>
+      <c r="B40" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="142">
+        <v>1</v>
+      </c>
+      <c r="D40" s="124" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="117">
+        <v>43657.4375</v>
+      </c>
+      <c r="G40" s="117">
+        <v>43657.541666666664</v>
+      </c>
+      <c r="H40" s="117">
+        <v>43657.5625</v>
+      </c>
+      <c r="I40" s="142" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="142" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" s="110"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119">
+        <v>2</v>
+      </c>
+      <c r="D41" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="117">
+        <v>43657.604166666664</v>
+      </c>
+      <c r="G41" s="117">
+        <v>43657.6875</v>
+      </c>
+      <c r="H41" s="117">
+        <v>43657.6875</v>
+      </c>
+      <c r="I41" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="L41" s="110"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="108"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119">
+        <v>3</v>
+      </c>
+      <c r="D42" s="121" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="117">
+        <v>43657.6875</v>
+      </c>
+      <c r="G42" s="117">
+        <v>43657.729166666664</v>
+      </c>
+      <c r="H42" s="117">
+        <v>43657.770833333336</v>
+      </c>
+      <c r="I42" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" s="118" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="110"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="108"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
+      <c r="A43" s="142"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="112"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="108"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
+      <c r="L44" s="112"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+    </row>
+    <row r="45" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="143"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="106"/>
+      <c r="N45" s="106"/>
+      <c r="O45" s="106"/>
+      <c r="P45" s="106"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="108"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="126"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="114"/>
       <c r="M46" s="53"/>
       <c r="N46" s="53"/>
       <c r="O46" s="53"/>
       <c r="P46" s="53"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="108"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="108"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="119"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="108"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="119"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="119"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="118"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="119"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="119"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="119"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="119"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="118"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="119"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="119"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="119"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="119"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="118"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="119"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="118"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="119"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="118"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="119"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="119"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="111"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="119"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="118"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="119"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="119"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="119"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="119"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="119"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="111"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="119"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="119"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="119"/>
+      <c r="J63" s="119"/>
+      <c r="K63" s="118"/>
+      <c r="L63" s="111"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="119"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="119"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="111"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="119"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="119"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
+      <c r="J65" s="119"/>
+      <c r="K65" s="118"/>
+      <c r="L65" s="111"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" s="119"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="119"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="119"/>
+      <c r="F66" s="119"/>
+      <c r="G66" s="119"/>
+      <c r="H66" s="119"/>
+      <c r="I66" s="119"/>
+      <c r="J66" s="119"/>
+      <c r="K66" s="118"/>
+      <c r="L66" s="111"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67" s="119"/>
+      <c r="B67" s="119"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="119"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="118"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A68" s="119"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="119"/>
+      <c r="G68" s="119"/>
+      <c r="H68" s="119"/>
+      <c r="I68" s="119"/>
+      <c r="J68" s="119"/>
+      <c r="K68" s="118"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="119"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="119"/>
+      <c r="H69" s="119"/>
+      <c r="I69" s="119"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="111"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A70" s="119"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="119"/>
+      <c r="H70" s="119"/>
+      <c r="I70" s="119"/>
+      <c r="J70" s="119"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="111"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A71" s="119"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="119"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="119"/>
+      <c r="H71" s="119"/>
+      <c r="I71" s="119"/>
+      <c r="J71" s="119"/>
+      <c r="K71" s="118"/>
+      <c r="L71" s="111"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="119"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="119"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="119"/>
+      <c r="H72" s="119"/>
+      <c r="I72" s="119"/>
+      <c r="J72" s="119"/>
+      <c r="K72" s="118"/>
+      <c r="L72" s="111"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A73" s="119"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="119"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="119"/>
+      <c r="I73" s="119"/>
+      <c r="J73" s="119"/>
+      <c r="K73" s="118"/>
+      <c r="L73" s="111"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="184">
   <si>
     <t>No</t>
   </si>
@@ -792,9 +792,6 @@
     <t>User Story ID</t>
   </si>
   <si>
-    <t>US:nnn</t>
-  </si>
-  <si>
     <t>Product Backlog ID</t>
   </si>
   <si>
@@ -1002,12 +999,6 @@
     <t>5.5 hours</t>
   </si>
   <si>
-    <t>WebApi without validation(less hours due to L1 Mock)</t>
-  </si>
-  <si>
-    <t>WebApi was Consumed in Controller(less hours due to MS Certification Mock)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Testing was performed. </t>
   </si>
   <si>
@@ -1030,6 +1021,168 @@
   </si>
   <si>
     <t>Final Testing was Performed</t>
+  </si>
+  <si>
+    <t>Problem Statement</t>
+  </si>
+  <si>
+    <t>US:201</t>
+  </si>
+  <si>
+    <t>Understanding Requirements</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>US:202</t>
+  </si>
+  <si>
+    <t>Sql Database</t>
+  </si>
+  <si>
+    <t>Table Creation</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>`1</t>
+  </si>
+  <si>
+    <t>`2</t>
+  </si>
+  <si>
+    <t>`3</t>
+  </si>
+  <si>
+    <t>`4</t>
+  </si>
+  <si>
+    <t>`5</t>
+  </si>
+  <si>
+    <t>`6</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>US:203</t>
+  </si>
+  <si>
+    <t>Register/Login</t>
+  </si>
+  <si>
+    <t>US:204</t>
+  </si>
+  <si>
+    <t>US:205</t>
+  </si>
+  <si>
+    <t>US:206</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>Get Employee Logs</t>
+  </si>
+  <si>
+    <t>Get Employee Rooster</t>
+  </si>
+  <si>
+    <t>Leave Application</t>
+  </si>
+  <si>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Manage Profile</t>
+  </si>
+  <si>
+    <t>Book Taxi</t>
+  </si>
+  <si>
+    <t>Booking History</t>
+  </si>
+  <si>
+    <t>Manages Employees</t>
+  </si>
+  <si>
+    <t>Approve Employees</t>
+  </si>
+  <si>
+    <t>Manages Feedbacks</t>
+  </si>
+  <si>
+    <t>Add Employee Rosters</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Give Feed back</t>
+  </si>
+  <si>
+    <t>Login/Register</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Online Taxi Booking System</t>
+  </si>
+  <si>
+    <t>Integration of Users</t>
+  </si>
+  <si>
+    <t>Annual Revenue Method</t>
+  </si>
+  <si>
+    <t>Rating input in form of stars</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Should have</t>
+  </si>
+  <si>
+    <t>Should Have</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>1 hours</t>
+  </si>
+  <si>
+    <t>WebApi without validation</t>
+  </si>
+  <si>
+    <t>WebApi was Consumed in Controller</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Overall Testing of Web app</t>
   </si>
 </sst>
 </file>
@@ -1201,13 +1354,6 @@
     </font>
     <font>
       <b/>
-      <strike/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
@@ -1244,6 +1390,12 @@
       <i/>
       <sz val="10"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1316,7 +1468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1500,6 +1652,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1508,7 +1680,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1614,10 +1786,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1712,35 +1884,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1781,13 +1926,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1848,7 +1986,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,6 +2067,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2036,7 +2180,7 @@
         <xdr:cNvPr id="2262" name="Picture 2" descr="oracle-logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D6080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000D6080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2232,7 @@
         <xdr:cNvPr id="2263" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000D7080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000D7080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2145,7 +2289,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2362,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,23 +2755,23 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
-      <c r="D1" s="150" t="str">
+      <c r="D1" s="138" t="str">
         <f>Document_Ref</f>
         <v>&lt;Document Reference Number&gt;</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="149">
+      <c r="E2" s="137">
         <f ca="1">NOW()</f>
-        <v>43776.840115624997</v>
-      </c>
-      <c r="F2" s="149"/>
+        <v>43777.446751041665</v>
+      </c>
+      <c r="F2" s="137"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
@@ -2958,11 +3102,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
-      <c r="E2" s="149">
+      <c r="E2" s="137">
         <f ca="1">NOW()</f>
-        <v>43776.840115624997</v>
-      </c>
-      <c r="F2" s="149"/>
+        <v>43777.446751041665</v>
+      </c>
+      <c r="F2" s="137"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="43"/>
@@ -3002,48 +3146,48 @@
       <c r="A7" s="60">
         <v>1</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="141"/>
       <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61">
         <v>2</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="153"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="141"/>
       <c r="F8" s="60"/>
     </row>
     <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61">
         <v>3</v>
       </c>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="141"/>
       <c r="F9" s="60"/>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="61">
         <v>4</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="153"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="60"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3090,10 +3234,10 @@
       <c r="A15" s="58"/>
       <c r="B15" s="58"/>
       <c r="C15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>71</v>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="58"/>
@@ -3179,11 +3323,11 @@
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="149">
+      <c r="E2" s="137">
         <f ca="1">NOW()</f>
-        <v>43776.840115624997</v>
-      </c>
-      <c r="F2" s="149"/>
+        <v>43777.446751041665</v>
+      </c>
+      <c r="F2" s="137"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
@@ -3442,26 +3586,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T112"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="62" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="63" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" style="63" customWidth="1"/>
-    <col min="6" max="7" width="10.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19" style="13" customWidth="1"/>
     <col min="8" max="9" width="13.5703125" style="62" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="63" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="96" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" style="87" customWidth="1"/>
     <col min="12" max="12" width="18.140625" style="62" customWidth="1"/>
-    <col min="13" max="13" width="18" style="101" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="101" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="92" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="92" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="63" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="68" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" style="13" customWidth="1"/>
@@ -3514,7 +3659,7 @@
     </row>
     <row r="3" spans="1:20" s="13" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>34</v>
@@ -3526,13 +3671,13 @@
         <v>52</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="49" t="s">
         <v>37</v>
@@ -3544,7 +3689,7 @@
         <v>39</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="49" t="s">
         <v>26</v>
@@ -3562,7 +3707,7 @@
         <v>42</v>
       </c>
       <c r="Q3" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R3" s="48" t="s">
         <v>43</v>
@@ -3572,66 +3717,88 @@
       </c>
       <c r="T3" s="69"/>
     </row>
-    <row r="4" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="66"/>
+    <row r="4" spans="1:20" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="143" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
       <c r="T4" s="69"/>
     </row>
     <row r="5" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="65">
-        <v>2</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>81</v>
+      </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="76"/>
       <c r="K5" s="47"/>
       <c r="L5" s="36"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
       <c r="O5" s="66"/>
       <c r="P5" s="66"/>
       <c r="Q5" s="52"/>
-      <c r="R5" s="47"/>
+      <c r="R5" s="65"/>
       <c r="S5" s="66"/>
       <c r="T5" s="69"/>
     </row>
     <row r="6" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="65">
-        <v>3</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>81</v>
+      </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
       <c r="J6" s="76"/>
@@ -3646,47 +3813,59 @@
       <c r="S6" s="66"/>
       <c r="T6" s="69"/>
     </row>
-    <row r="7" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65">
-        <v>4</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="66"/>
+    <row r="7" spans="1:20" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
       <c r="T7" s="69"/>
     </row>
     <row r="8" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65">
-        <v>5</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
+      <c r="A8" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="76"/>
       <c r="K8" s="47"/>
       <c r="L8" s="36"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="66"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="52"/>
@@ -3695,22 +3874,34 @@
       <c r="T8" s="69"/>
     </row>
     <row r="9" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65">
-        <v>6</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="A9" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="76"/>
       <c r="K9" s="47"/>
       <c r="L9" s="36"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="52"/>
       <c r="O9" s="66"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="52"/>
@@ -3719,15 +3910,27 @@
       <c r="T9" s="69"/>
     </row>
     <row r="10" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="65">
-        <v>7</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="A10" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="76"/>
@@ -3738,20 +3941,32 @@
       <c r="O10" s="66"/>
       <c r="P10" s="66"/>
       <c r="Q10" s="52"/>
-      <c r="R10" s="65"/>
+      <c r="R10" s="47"/>
       <c r="S10" s="66"/>
       <c r="T10" s="69"/>
     </row>
     <row r="11" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="65">
-        <v>8</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
+      <c r="A11" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="76"/>
@@ -3762,20 +3977,32 @@
       <c r="O11" s="66"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="52"/>
-      <c r="R11" s="54"/>
+      <c r="R11" s="47"/>
       <c r="S11" s="66"/>
       <c r="T11" s="69"/>
     </row>
     <row r="12" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65">
-        <v>9</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="A12" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="76"/>
@@ -3786,20 +4013,32 @@
       <c r="O12" s="66"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="52"/>
-      <c r="R12" s="54"/>
+      <c r="R12" s="65"/>
       <c r="S12" s="66"/>
       <c r="T12" s="69"/>
     </row>
     <row r="13" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65">
-        <v>10</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+      <c r="A13" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>98</v>
+      </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="76"/>
@@ -3814,88 +4053,124 @@
       <c r="S13" s="66"/>
       <c r="T13" s="69"/>
     </row>
-    <row r="14" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65">
-        <v>11</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="47"/>
+    <row r="14" spans="1:20" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
       <c r="T14" s="69"/>
     </row>
     <row r="15" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65">
-        <v>12</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="76"/>
       <c r="K15" s="77"/>
       <c r="L15" s="36"/>
-      <c r="M15" s="52"/>
+      <c r="M15" s="77"/>
       <c r="N15" s="77"/>
       <c r="O15" s="47"/>
       <c r="P15" s="47"/>
-      <c r="Q15" s="52"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="54"/>
       <c r="S15" s="47"/>
       <c r="T15" s="69"/>
     </row>
     <row r="16" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65">
-        <v>13</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
+        <v>2</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="36"/>
       <c r="M16" s="77"/>
       <c r="N16" s="77"/>
       <c r="O16" s="47"/>
       <c r="P16" s="47"/>
       <c r="Q16" s="47"/>
-      <c r="R16" s="54"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="47"/>
       <c r="T16" s="78"/>
     </row>
     <row r="17" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65">
-        <v>14</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+        <v>3</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="76"/>
@@ -3906,43 +4181,67 @@
       <c r="O17" s="47"/>
       <c r="P17" s="47"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="54"/>
+      <c r="R17" s="52"/>
       <c r="S17" s="47"/>
       <c r="T17" s="78"/>
     </row>
     <row r="18" spans="1:20" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
+      <c r="A18" s="65">
+        <v>4</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="47"/>
     </row>
     <row r="19" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65">
-        <v>15</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+        <v>5</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="76"/>
@@ -3953,24 +4252,36 @@
       <c r="O19" s="47"/>
       <c r="P19" s="47"/>
       <c r="Q19" s="47"/>
-      <c r="R19" s="54"/>
+      <c r="R19" s="52"/>
       <c r="S19" s="47"/>
       <c r="T19" s="78"/>
     </row>
     <row r="20" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="65">
-        <v>16</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+        <v>6</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="76"/>
-      <c r="K20" s="47"/>
+      <c r="K20" s="77"/>
       <c r="L20" s="36"/>
       <c r="M20" s="77"/>
       <c r="N20" s="77"/>
@@ -3983,11 +4294,15 @@
     </row>
     <row r="21" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="65">
-        <v>17</v>
-      </c>
-      <c r="B21" s="36"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>133</v>
+      </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="76"/>
+      <c r="D21" s="76" t="s">
+        <v>148</v>
+      </c>
       <c r="E21" s="47"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
@@ -4005,40 +4320,52 @@
       <c r="S21" s="47"/>
       <c r="T21" s="78"/>
     </row>
-    <row r="22" spans="1:20" s="84" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65">
-        <v>18</v>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="83"/>
+    <row r="22" spans="1:20" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="142" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="142"/>
+      <c r="T22" s="69"/>
     </row>
     <row r="23" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65">
-        <v>19</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+        <v>1</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="76"/>
@@ -4053,16 +4380,28 @@
       <c r="S23" s="47"/>
       <c r="T23" s="78"/>
     </row>
-    <row r="24" spans="1:20" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="65">
-        <v>20</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+        <v>2</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="76"/>
@@ -4079,14 +4418,26 @@
     </row>
     <row r="25" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="65">
-        <v>21</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="76"/>
@@ -4101,16 +4452,28 @@
       <c r="S25" s="47"/>
       <c r="T25" s="78"/>
     </row>
-    <row r="26" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="65">
-        <v>22</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+        <v>4</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
       <c r="J26" s="76"/>
@@ -4125,16 +4488,28 @@
       <c r="S26" s="47"/>
       <c r="T26" s="78"/>
     </row>
-    <row r="27" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="65">
-        <v>23</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+        <v>5</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="76"/>
@@ -4151,14 +4526,26 @@
     </row>
     <row r="28" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="65">
-        <v>24</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
+        <v>6</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
       <c r="J28" s="76"/>
@@ -4173,16 +4560,28 @@
       <c r="S28" s="47"/>
       <c r="T28" s="78"/>
     </row>
-    <row r="29" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="65">
-        <v>25</v>
-      </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
+        <v>7</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="H29" s="36"/>
       <c r="I29" s="36"/>
       <c r="J29" s="76"/>
@@ -4197,40 +4596,52 @@
       <c r="S29" s="47"/>
       <c r="T29" s="78"/>
     </row>
-    <row r="30" spans="1:20" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65">
-        <v>26</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="47"/>
+    <row r="30" spans="1:20" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="142"/>
       <c r="T30" s="78"/>
     </row>
     <row r="31" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="65">
-        <v>27</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>81</v>
+      </c>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="76"/>
@@ -4245,44 +4656,56 @@
       <c r="S31" s="47"/>
       <c r="T31" s="78"/>
     </row>
-    <row r="32" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65">
-        <v>28</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="47"/>
+    <row r="32" spans="1:20" s="51" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
+      <c r="P32" s="142"/>
+      <c r="Q32" s="142"/>
+      <c r="R32" s="142"/>
+      <c r="S32" s="142"/>
       <c r="T32" s="78"/>
     </row>
     <row r="33" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="65">
-        <v>29</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
+        <v>1</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>81</v>
+      </c>
       <c r="H33" s="36"/>
       <c r="I33" s="36"/>
       <c r="J33" s="76"/>
-      <c r="K33" s="77"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="36"/>
       <c r="M33" s="77"/>
       <c r="N33" s="77"/>
@@ -4293,20 +4716,32 @@
       <c r="S33" s="47"/>
       <c r="T33" s="78"/>
     </row>
-    <row r="34" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="65">
-        <v>30</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
+        <v>2</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>81</v>
+      </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36"/>
       <c r="J34" s="76"/>
-      <c r="K34" s="77"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="77"/>
       <c r="N34" s="77"/>
@@ -4315,1291 +4750,1350 @@
       <c r="Q34" s="47"/>
       <c r="R34" s="52"/>
       <c r="S34" s="47"/>
-      <c r="T34" s="78"/>
-    </row>
-    <row r="36" spans="1:20" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65">
-        <v>31</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="47"/>
+    </row>
+    <row r="35" spans="1:20" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="65"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="78"/>
+    </row>
+    <row r="36" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="68"/>
       <c r="T36" s="78"/>
     </row>
     <row r="37" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65">
-        <v>32</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="47"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="68"/>
       <c r="T37" s="78"/>
     </row>
     <row r="38" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="65">
-        <v>33</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="47"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="68"/>
       <c r="T38" s="78"/>
     </row>
     <row r="39" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65">
-        <v>34</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="47"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="68"/>
       <c r="T39" s="78"/>
     </row>
     <row r="40" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65">
-        <v>35</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
       <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="47"/>
+      <c r="R40" s="13"/>
       <c r="T40" s="78"/>
     </row>
     <row r="41" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="65">
-        <v>36</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
       <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="47"/>
+      <c r="R41" s="13"/>
       <c r="T41" s="78"/>
     </row>
     <row r="42" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65">
-        <v>37</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
       <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="47"/>
+      <c r="R42" s="13"/>
       <c r="T42" s="78"/>
     </row>
     <row r="43" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65">
-        <v>38</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="76"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
       <c r="O43" s="47"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="47"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="47"/>
+      <c r="R43" s="13"/>
       <c r="T43" s="78"/>
     </row>
     <row r="44" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65">
-        <v>39</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
       <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="47"/>
+      <c r="R44" s="13"/>
       <c r="T44" s="78"/>
     </row>
     <row r="45" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65">
-        <v>40</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="76"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
       <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="47"/>
+      <c r="R45" s="13"/>
       <c r="T45" s="78"/>
     </row>
     <row r="46" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="65">
-        <v>41</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="76"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
       <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="47"/>
+      <c r="R46" s="13"/>
       <c r="T46" s="78"/>
     </row>
     <row r="47" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65">
-        <v>42</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
       <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="47"/>
+      <c r="R47" s="13"/>
       <c r="T47" s="78"/>
     </row>
     <row r="48" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65">
-        <v>43</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
       <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="47"/>
+      <c r="R48" s="13"/>
       <c r="T48" s="78"/>
     </row>
     <row r="49" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="65">
-        <v>44</v>
-      </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
       <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="47"/>
+      <c r="R49" s="13"/>
       <c r="T49" s="78"/>
     </row>
     <row r="50" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65">
-        <v>45</v>
-      </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="76"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="77"/>
-      <c r="N50" s="77"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
       <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="47"/>
+      <c r="R50" s="13"/>
       <c r="T50" s="78"/>
     </row>
     <row r="51" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65">
-        <v>46</v>
-      </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="77"/>
-      <c r="N51" s="77"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
       <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="47"/>
+      <c r="R51" s="13"/>
       <c r="T51" s="78"/>
     </row>
     <row r="52" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
       <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="47"/>
+      <c r="R52" s="13"/>
       <c r="T52" s="78"/>
     </row>
     <row r="53" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="77"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
       <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="47"/>
+      <c r="R53" s="13"/>
       <c r="T53" s="78"/>
     </row>
     <row r="54" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
       <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="47"/>
+      <c r="R54" s="13"/>
       <c r="T54" s="78"/>
     </row>
-    <row r="55" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
+    <row r="55" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="86"/>
+      <c r="B55" s="82"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="84"/>
+      <c r="J55" s="78"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
       <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="78"/>
-    </row>
-    <row r="56" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="90"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="92"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="S55" s="51"/>
+    </row>
+    <row r="56" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="86"/>
+      <c r="B56" s="82"/>
       <c r="D56" s="78"/>
-      <c r="E56" s="93"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
+      <c r="E56" s="84"/>
       <c r="J56" s="78"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="93"/>
-      <c r="N56" s="93"/>
-      <c r="O56" s="56"/>
-    </row>
-    <row r="57" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="90"/>
-      <c r="B57" s="91"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="S56" s="51"/>
+    </row>
+    <row r="57" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="86"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="83"/>
       <c r="D57" s="78"/>
-      <c r="E57" s="93"/>
+      <c r="E57" s="84"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
       <c r="J57" s="78"/>
-      <c r="K57" s="62"/>
-      <c r="M57" s="93"/>
-      <c r="N57" s="93"/>
-      <c r="O57" s="57"/>
-    </row>
-    <row r="58" spans="1:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="90"/>
-      <c r="B58" s="91"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="S57" s="51"/>
+    </row>
+    <row r="58" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="86"/>
+      <c r="B58" s="82"/>
       <c r="D58" s="78"/>
-      <c r="E58" s="93"/>
+      <c r="E58" s="84"/>
       <c r="J58" s="78"/>
-      <c r="K58" s="62"/>
-      <c r="M58" s="93"/>
-      <c r="N58" s="93"/>
-      <c r="O58" s="57"/>
-    </row>
-    <row r="59" spans="1:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="90"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="92"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="S58" s="51"/>
+    </row>
+    <row r="59" spans="1:20" s="51" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="86"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="78"/>
-      <c r="E59" s="93"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
       <c r="J59" s="78"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="57"/>
-    </row>
-    <row r="60" spans="1:20" s="51" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="95"/>
-      <c r="B60" s="91"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="47"/>
+      <c r="R59" s="13"/>
+      <c r="T59" s="78"/>
+    </row>
+    <row r="60" spans="1:20" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="86"/>
+      <c r="B60" s="82"/>
       <c r="C60" s="62"/>
       <c r="D60" s="78"/>
-      <c r="E60" s="93"/>
+      <c r="E60" s="84"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="62"/>
       <c r="I60" s="62"/>
       <c r="J60" s="78"/>
-      <c r="K60" s="96"/>
+      <c r="K60" s="87"/>
       <c r="L60" s="62"/>
-      <c r="M60" s="93"/>
-      <c r="N60" s="93"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="84"/>
       <c r="O60" s="47"/>
       <c r="R60" s="13"/>
       <c r="T60" s="78"/>
     </row>
     <row r="61" spans="1:20" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="95"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="93"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="84"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="93"/>
-      <c r="N61" s="93"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="84"/>
       <c r="O61" s="47"/>
       <c r="R61" s="13"/>
       <c r="T61" s="78"/>
     </row>
-    <row r="62" spans="1:20" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="95"/>
-      <c r="B62" s="91"/>
+    <row r="62" spans="1:20" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="86"/>
+      <c r="B62" s="82"/>
       <c r="C62" s="62"/>
       <c r="D62" s="78"/>
-      <c r="E62" s="93"/>
+      <c r="E62" s="84"/>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
       <c r="H62" s="62"/>
       <c r="I62" s="62"/>
       <c r="J62" s="78"/>
-      <c r="K62" s="96"/>
+      <c r="K62" s="87"/>
       <c r="L62" s="62"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
+      <c r="M62" s="84"/>
+      <c r="N62" s="84"/>
       <c r="O62" s="47"/>
       <c r="R62" s="13"/>
       <c r="T62" s="78"/>
     </row>
-    <row r="63" spans="1:20" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="95"/>
-      <c r="B63" s="91"/>
+    <row r="63" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="86"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="62"/>
       <c r="D63" s="78"/>
-      <c r="E63" s="93"/>
+      <c r="E63" s="84"/>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="62"/>
       <c r="I63" s="62"/>
       <c r="J63" s="78"/>
-      <c r="K63" s="96"/>
+      <c r="K63" s="87"/>
       <c r="L63" s="62"/>
-      <c r="M63" s="93"/>
-      <c r="N63" s="93"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
       <c r="O63" s="47"/>
       <c r="R63" s="13"/>
       <c r="T63" s="78"/>
     </row>
-    <row r="64" spans="1:20" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="95"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="93"/>
+    <row r="64" spans="1:20" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="86"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="84"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="93"/>
-      <c r="N64" s="93"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
       <c r="O64" s="47"/>
       <c r="R64" s="13"/>
       <c r="T64" s="78"/>
     </row>
-    <row r="65" spans="1:20" s="51" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="95"/>
-      <c r="B65" s="91"/>
+    <row r="65" spans="1:20" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="86"/>
+      <c r="B65" s="82"/>
       <c r="C65" s="62"/>
       <c r="D65" s="78"/>
-      <c r="E65" s="93"/>
+      <c r="E65" s="84"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="62"/>
       <c r="I65" s="62"/>
       <c r="J65" s="78"/>
-      <c r="K65" s="96"/>
+      <c r="K65" s="87"/>
       <c r="L65" s="62"/>
-      <c r="M65" s="93"/>
-      <c r="N65" s="93"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
       <c r="O65" s="47"/>
       <c r="R65" s="13"/>
       <c r="T65" s="78"/>
     </row>
-    <row r="66" spans="1:20" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="95"/>
-      <c r="B66" s="91"/>
+    <row r="66" spans="1:20" s="51" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="86"/>
+      <c r="B66" s="82"/>
       <c r="C66" s="62"/>
       <c r="D66" s="78"/>
-      <c r="E66" s="93"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="62"/>
       <c r="I66" s="62"/>
       <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
+      <c r="K66" s="87"/>
       <c r="L66" s="62"/>
-      <c r="M66" s="93"/>
-      <c r="N66" s="93"/>
+      <c r="M66" s="84"/>
+      <c r="N66" s="84"/>
       <c r="O66" s="47"/>
       <c r="R66" s="13"/>
       <c r="T66" s="78"/>
     </row>
-    <row r="67" spans="1:20" s="51" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="95"/>
-      <c r="B67" s="91"/>
+    <row r="67" spans="1:20" s="51" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="86"/>
+      <c r="B67" s="82"/>
       <c r="C67" s="62"/>
       <c r="D67" s="78"/>
-      <c r="E67" s="93"/>
+      <c r="E67" s="84"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="62"/>
       <c r="I67" s="62"/>
       <c r="J67" s="78"/>
-      <c r="K67" s="96"/>
+      <c r="K67" s="87"/>
       <c r="L67" s="62"/>
-      <c r="M67" s="93"/>
-      <c r="N67" s="93"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
       <c r="O67" s="47"/>
       <c r="R67" s="13"/>
       <c r="T67" s="78"/>
     </row>
-    <row r="68" spans="1:20" s="51" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="95"/>
-      <c r="B68" s="91"/>
+    <row r="68" spans="1:20" s="51" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="86"/>
+      <c r="B68" s="82"/>
       <c r="C68" s="62"/>
       <c r="D68" s="78"/>
-      <c r="E68" s="93"/>
+      <c r="E68" s="84"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
       <c r="H68" s="62"/>
       <c r="I68" s="62"/>
       <c r="J68" s="78"/>
-      <c r="K68" s="96"/>
+      <c r="K68" s="87"/>
       <c r="L68" s="62"/>
-      <c r="M68" s="93"/>
-      <c r="N68" s="93"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
       <c r="O68" s="47"/>
       <c r="R68" s="13"/>
       <c r="T68" s="78"/>
     </row>
-    <row r="69" spans="1:20" s="51" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="95"/>
-      <c r="B69" s="91"/>
+    <row r="69" spans="1:20" s="51" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="86"/>
+      <c r="B69" s="82"/>
       <c r="C69" s="62"/>
       <c r="D69" s="78"/>
-      <c r="E69" s="93"/>
+      <c r="E69" s="88"/>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
       <c r="H69" s="62"/>
       <c r="I69" s="62"/>
       <c r="J69" s="78"/>
-      <c r="K69" s="96"/>
+      <c r="K69" s="87"/>
       <c r="L69" s="62"/>
-      <c r="M69" s="93"/>
-      <c r="N69" s="93"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="88"/>
       <c r="O69" s="47"/>
       <c r="R69" s="13"/>
       <c r="T69" s="78"/>
     </row>
-    <row r="70" spans="1:20" s="51" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="95"/>
-      <c r="B70" s="91"/>
+    <row r="70" spans="1:20" s="51" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="86"/>
+      <c r="B70" s="82"/>
       <c r="C70" s="62"/>
       <c r="D70" s="78"/>
-      <c r="E70" s="93"/>
+      <c r="E70" s="89"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
       <c r="H70" s="62"/>
       <c r="I70" s="62"/>
       <c r="J70" s="78"/>
-      <c r="K70" s="96"/>
+      <c r="K70" s="87"/>
       <c r="L70" s="62"/>
-      <c r="M70" s="93"/>
-      <c r="N70" s="93"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="90"/>
       <c r="O70" s="47"/>
       <c r="R70" s="13"/>
       <c r="T70" s="78"/>
     </row>
-    <row r="71" spans="1:20" s="51" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="95"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="62"/>
+    <row r="71" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="86"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
       <c r="D71" s="78"/>
-      <c r="E71" s="93"/>
+      <c r="E71" s="89"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="82"/>
       <c r="J71" s="78"/>
-      <c r="K71" s="96"/>
+      <c r="K71" s="87"/>
       <c r="L71" s="62"/>
-      <c r="M71" s="93"/>
-      <c r="N71" s="93"/>
+      <c r="M71" s="90"/>
+      <c r="N71" s="90"/>
       <c r="O71" s="47"/>
       <c r="R71" s="13"/>
       <c r="T71" s="78"/>
     </row>
-    <row r="72" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="95"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="62"/>
+    <row r="72" spans="1:20" s="51" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="86"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
       <c r="D72" s="78"/>
-      <c r="E72" s="93"/>
+      <c r="E72" s="84"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
+      <c r="H72" s="82"/>
+      <c r="I72" s="82"/>
       <c r="J72" s="78"/>
-      <c r="K72" s="96"/>
+      <c r="K72" s="87"/>
       <c r="L72" s="62"/>
-      <c r="M72" s="93"/>
-      <c r="N72" s="93"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
       <c r="O72" s="47"/>
       <c r="R72" s="13"/>
       <c r="T72" s="78"/>
     </row>
-    <row r="73" spans="1:20" s="51" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="95"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="93"/>
+    <row r="73" spans="1:20" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="86"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="84"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
-      <c r="H73" s="92"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="92"/>
-      <c r="L73" s="92"/>
-      <c r="M73" s="93"/>
-      <c r="N73" s="93"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="82"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="87"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
       <c r="O73" s="47"/>
       <c r="R73" s="13"/>
       <c r="T73" s="78"/>
     </row>
-    <row r="74" spans="1:20" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="95"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="62"/>
+    <row r="74" spans="1:20" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="78"/>
-      <c r="E74" s="93"/>
+      <c r="E74" s="78"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
+      <c r="H74" s="82"/>
+      <c r="I74" s="82"/>
       <c r="J74" s="78"/>
-      <c r="K74" s="96"/>
+      <c r="K74" s="87"/>
       <c r="L74" s="62"/>
-      <c r="M74" s="93"/>
-      <c r="N74" s="93"/>
-      <c r="O74" s="47"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="85"/>
+      <c r="O74" s="78"/>
+      <c r="P74" s="78"/>
+      <c r="Q74" s="78"/>
       <c r="R74" s="13"/>
+      <c r="S74" s="78"/>
       <c r="T74" s="78"/>
     </row>
-    <row r="75" spans="1:20" s="51" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="95"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="62"/>
+    <row r="75" spans="1:20" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="82"/>
       <c r="D75" s="78"/>
-      <c r="E75" s="93"/>
+      <c r="E75" s="78"/>
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
       <c r="J75" s="78"/>
-      <c r="K75" s="96"/>
+      <c r="K75" s="87"/>
       <c r="L75" s="62"/>
-      <c r="M75" s="93"/>
-      <c r="N75" s="93"/>
-      <c r="O75" s="47"/>
+      <c r="M75" s="85"/>
+      <c r="N75" s="85"/>
+      <c r="O75" s="78"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="78"/>
       <c r="R75" s="13"/>
+      <c r="S75" s="78"/>
       <c r="T75" s="78"/>
     </row>
-    <row r="76" spans="1:20" s="51" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="95"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="62"/>
+    <row r="76" spans="1:20" s="51" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="82"/>
       <c r="D76" s="78"/>
-      <c r="E76" s="93"/>
+      <c r="E76" s="78"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
       <c r="J76" s="78"/>
-      <c r="K76" s="96"/>
+      <c r="K76" s="87"/>
       <c r="L76" s="62"/>
-      <c r="M76" s="93"/>
-      <c r="N76" s="93"/>
-      <c r="O76" s="47"/>
+      <c r="M76" s="85"/>
+      <c r="N76" s="85"/>
+      <c r="O76" s="78"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="78"/>
       <c r="R76" s="13"/>
+      <c r="S76" s="78"/>
       <c r="T76" s="78"/>
     </row>
-    <row r="77" spans="1:20" s="51" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="95"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="92"/>
+    <row r="77" spans="1:20" s="51" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="62"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="78"/>
-      <c r="E77" s="93"/>
+      <c r="E77" s="78"/>
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
-      <c r="H77" s="92"/>
-      <c r="I77" s="92"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="82"/>
       <c r="J77" s="78"/>
-      <c r="K77" s="96"/>
+      <c r="K77" s="87"/>
       <c r="L77" s="62"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="47"/>
+      <c r="M77" s="85"/>
+      <c r="N77" s="85"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="78"/>
+      <c r="Q77" s="78"/>
       <c r="R77" s="13"/>
+      <c r="S77" s="78"/>
       <c r="T77" s="78"/>
     </row>
-    <row r="78" spans="1:20" s="51" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="95"/>
-      <c r="B78" s="91"/>
+    <row r="78" spans="1:20" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="62"/>
       <c r="C78" s="62"/>
       <c r="D78" s="78"/>
-      <c r="E78" s="93"/>
+      <c r="E78" s="78"/>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
       <c r="J78" s="78"/>
-      <c r="K78" s="96"/>
+      <c r="K78" s="87"/>
       <c r="L78" s="62"/>
-      <c r="M78" s="93"/>
-      <c r="N78" s="93"/>
-      <c r="O78" s="47"/>
+      <c r="M78" s="85"/>
+      <c r="N78" s="85"/>
+      <c r="O78" s="78"/>
+      <c r="P78" s="78"/>
+      <c r="Q78" s="78"/>
       <c r="R78" s="13"/>
+      <c r="S78" s="78"/>
       <c r="T78" s="78"/>
     </row>
-    <row r="79" spans="1:20" s="51" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="95"/>
-      <c r="B79" s="91"/>
+    <row r="79" spans="1:20" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="62"/>
       <c r="C79" s="62"/>
       <c r="D79" s="78"/>
-      <c r="E79" s="93"/>
+      <c r="E79" s="78"/>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
       <c r="J79" s="78"/>
-      <c r="K79" s="96"/>
+      <c r="K79" s="87"/>
       <c r="L79" s="62"/>
-      <c r="M79" s="93"/>
-      <c r="N79" s="93"/>
-      <c r="O79" s="47"/>
+      <c r="M79" s="85"/>
+      <c r="N79" s="85"/>
+      <c r="O79" s="78"/>
+      <c r="P79" s="78"/>
+      <c r="Q79" s="78"/>
       <c r="R79" s="13"/>
+      <c r="S79" s="78"/>
       <c r="T79" s="78"/>
     </row>
-    <row r="80" spans="1:20" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="95"/>
-      <c r="B80" s="91"/>
+    <row r="80" spans="1:20" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="62"/>
       <c r="C80" s="62"/>
       <c r="D80" s="78"/>
-      <c r="E80" s="93"/>
+      <c r="E80" s="78"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="62"/>
       <c r="I80" s="62"/>
       <c r="J80" s="78"/>
-      <c r="K80" s="96"/>
+      <c r="K80" s="87"/>
       <c r="L80" s="62"/>
-      <c r="M80" s="93"/>
-      <c r="N80" s="93"/>
-      <c r="O80" s="47"/>
+      <c r="M80" s="85"/>
+      <c r="N80" s="85"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="78"/>
+      <c r="Q80" s="78"/>
       <c r="R80" s="13"/>
+      <c r="S80" s="78"/>
       <c r="T80" s="78"/>
     </row>
-    <row r="81" spans="1:20" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="95"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="95"/>
-      <c r="E81" s="93"/>
+    <row r="81" spans="1:20" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="92"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="92"/>
-      <c r="L81" s="92"/>
-      <c r="M81" s="93"/>
-      <c r="N81" s="93"/>
-      <c r="O81" s="47"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="87"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="85"/>
+      <c r="N81" s="85"/>
+      <c r="O81" s="78"/>
+      <c r="P81" s="78"/>
+      <c r="Q81" s="78"/>
       <c r="R81" s="13"/>
+      <c r="S81" s="78"/>
       <c r="T81" s="78"/>
     </row>
-    <row r="82" spans="1:20" s="51" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="95"/>
-      <c r="B82" s="91"/>
+    <row r="82" spans="1:20" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
       <c r="C82" s="62"/>
       <c r="D82" s="78"/>
-      <c r="E82" s="93"/>
+      <c r="E82" s="78"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
       <c r="H82" s="62"/>
       <c r="I82" s="62"/>
       <c r="J82" s="78"/>
-      <c r="K82" s="96"/>
+      <c r="K82" s="87"/>
       <c r="L82" s="62"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-      <c r="O82" s="47"/>
+      <c r="M82" s="85"/>
+      <c r="N82" s="85"/>
+      <c r="O82" s="78"/>
+      <c r="P82" s="78"/>
+      <c r="Q82" s="78"/>
       <c r="R82" s="13"/>
+      <c r="S82" s="78"/>
       <c r="T82" s="78"/>
     </row>
-    <row r="83" spans="1:20" s="51" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="95"/>
-      <c r="B83" s="91"/>
+    <row r="83" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="62"/>
+      <c r="B83" s="62"/>
       <c r="C83" s="62"/>
       <c r="D83" s="78"/>
-      <c r="E83" s="93"/>
+      <c r="E83" s="78"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
       <c r="H83" s="62"/>
       <c r="I83" s="62"/>
       <c r="J83" s="78"/>
-      <c r="K83" s="96"/>
+      <c r="K83" s="87"/>
       <c r="L83" s="62"/>
-      <c r="M83" s="93"/>
-      <c r="N83" s="93"/>
-      <c r="O83" s="47"/>
+      <c r="M83" s="85"/>
+      <c r="N83" s="85"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="68"/>
+      <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
+      <c r="S83" s="68"/>
       <c r="T83" s="78"/>
     </row>
-    <row r="84" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="95"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="95"/>
-      <c r="E84" s="93"/>
+    <row r="84" spans="1:20" s="51" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="62"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="92"/>
-      <c r="J84" s="95"/>
-      <c r="K84" s="92"/>
-      <c r="L84" s="92"/>
-      <c r="M84" s="93"/>
-      <c r="N84" s="93"/>
-      <c r="O84" s="47"/>
+      <c r="H84" s="62"/>
+      <c r="I84" s="62"/>
+      <c r="J84" s="78"/>
+      <c r="K84" s="87"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="85"/>
+      <c r="N84" s="85"/>
+      <c r="O84" s="63"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
+      <c r="S84" s="68"/>
       <c r="T84" s="78"/>
     </row>
-    <row r="85" spans="1:20" s="51" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="95"/>
-      <c r="B85" s="91"/>
+    <row r="85" spans="1:20" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="62"/>
+      <c r="B85" s="62"/>
       <c r="C85" s="62"/>
       <c r="D85" s="78"/>
-      <c r="E85" s="93"/>
+      <c r="E85" s="78"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
       <c r="H85" s="62"/>
       <c r="I85" s="62"/>
       <c r="J85" s="78"/>
-      <c r="K85" s="96"/>
+      <c r="K85" s="87"/>
       <c r="L85" s="62"/>
-      <c r="M85" s="93"/>
-      <c r="N85" s="93"/>
-      <c r="O85" s="47"/>
+      <c r="M85" s="85"/>
+      <c r="N85" s="85"/>
+      <c r="O85" s="63"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
+      <c r="S85" s="68"/>
       <c r="T85" s="78"/>
     </row>
-    <row r="86" spans="1:20" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="95"/>
-      <c r="B86" s="91"/>
+    <row r="86" spans="1:20" s="51" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="62"/>
+      <c r="B86" s="62"/>
       <c r="C86" s="62"/>
       <c r="D86" s="78"/>
-      <c r="E86" s="93"/>
+      <c r="E86" s="78"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="62"/>
       <c r="I86" s="62"/>
       <c r="J86" s="78"/>
-      <c r="K86" s="96"/>
+      <c r="K86" s="87"/>
       <c r="L86" s="62"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="47"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="63"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="13"/>
       <c r="R86" s="13"/>
+      <c r="S86" s="68"/>
       <c r="T86" s="78"/>
     </row>
-    <row r="87" spans="1:20" s="51" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="95"/>
-      <c r="B87" s="91"/>
+    <row r="87" spans="1:20" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="62"/>
+      <c r="B87" s="62"/>
       <c r="C87" s="62"/>
       <c r="D87" s="78"/>
-      <c r="E87" s="93"/>
+      <c r="E87" s="78"/>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
       <c r="H87" s="62"/>
       <c r="I87" s="62"/>
       <c r="J87" s="78"/>
-      <c r="K87" s="96"/>
+      <c r="K87" s="87"/>
       <c r="L87" s="62"/>
-      <c r="M87" s="93"/>
-      <c r="N87" s="93"/>
-      <c r="O87" s="47"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="85"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="68"/>
+      <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
+      <c r="S87" s="68"/>
       <c r="T87" s="78"/>
     </row>
-    <row r="88" spans="1:20" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="95"/>
-      <c r="B88" s="91"/>
+    <row r="88" spans="1:20" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="62"/>
+      <c r="B88" s="62"/>
       <c r="C88" s="62"/>
       <c r="D88" s="78"/>
-      <c r="E88" s="93"/>
+      <c r="E88" s="78"/>
       <c r="F88" s="13"/>
       <c r="G88" s="13"/>
       <c r="H88" s="62"/>
       <c r="I88" s="62"/>
       <c r="J88" s="78"/>
-      <c r="K88" s="96"/>
+      <c r="K88" s="87"/>
       <c r="L88" s="62"/>
-      <c r="M88" s="93"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="47"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="85"/>
+      <c r="O88" s="63"/>
+      <c r="P88" s="68"/>
+      <c r="Q88" s="13"/>
       <c r="R88" s="13"/>
+      <c r="S88" s="68"/>
       <c r="T88" s="78"/>
     </row>
-    <row r="89" spans="1:20" s="51" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="95"/>
-      <c r="B89" s="91"/>
+    <row r="89" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="62"/>
+      <c r="B89" s="62"/>
       <c r="C89" s="62"/>
       <c r="D89" s="78"/>
-      <c r="E89" s="97"/>
+      <c r="E89" s="91"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="62"/>
       <c r="I89" s="62"/>
       <c r="J89" s="78"/>
-      <c r="K89" s="96"/>
+      <c r="K89" s="87"/>
       <c r="L89" s="62"/>
-      <c r="M89" s="97"/>
-      <c r="N89" s="97"/>
-      <c r="O89" s="47"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="85"/>
+      <c r="O89" s="63"/>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
+      <c r="S89" s="68"/>
       <c r="T89" s="78"/>
     </row>
-    <row r="90" spans="1:20" s="51" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="95"/>
-      <c r="B90" s="91"/>
+    <row r="90" spans="1:20" s="51" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="62"/>
+      <c r="B90" s="62"/>
       <c r="C90" s="62"/>
       <c r="D90" s="78"/>
-      <c r="E90" s="98"/>
+      <c r="E90" s="78"/>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
       <c r="H90" s="62"/>
       <c r="I90" s="62"/>
       <c r="J90" s="78"/>
-      <c r="K90" s="96"/>
+      <c r="K90" s="87"/>
       <c r="L90" s="62"/>
-      <c r="M90" s="99"/>
-      <c r="N90" s="99"/>
-      <c r="O90" s="47"/>
+      <c r="M90" s="85"/>
+      <c r="N90" s="85"/>
+      <c r="O90" s="63"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="13"/>
       <c r="R90" s="13"/>
+      <c r="S90" s="68"/>
       <c r="T90" s="78"/>
     </row>
-    <row r="91" spans="1:20" s="51" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="95"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
+    <row r="91" spans="1:20" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="62"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="62"/>
       <c r="D91" s="78"/>
-      <c r="E91" s="98"/>
+      <c r="E91" s="78"/>
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="91"/>
-      <c r="I91" s="91"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="62"/>
       <c r="J91" s="78"/>
-      <c r="K91" s="96"/>
+      <c r="K91" s="87"/>
       <c r="L91" s="62"/>
-      <c r="M91" s="99"/>
-      <c r="N91" s="99"/>
-      <c r="O91" s="47"/>
+      <c r="M91" s="85"/>
+      <c r="N91" s="85"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="68"/>
+      <c r="Q91" s="13"/>
       <c r="R91" s="13"/>
+      <c r="S91" s="68"/>
       <c r="T91" s="78"/>
     </row>
-    <row r="92" spans="1:20" s="51" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="95"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
+    <row r="92" spans="1:20" s="51" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="62"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
       <c r="D92" s="78"/>
-      <c r="E92" s="93"/>
+      <c r="E92" s="78"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
-      <c r="H92" s="91"/>
-      <c r="I92" s="91"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
       <c r="J92" s="78"/>
-      <c r="K92" s="96"/>
+      <c r="K92" s="87"/>
       <c r="L92" s="62"/>
-      <c r="M92" s="93"/>
-      <c r="N92" s="93"/>
-      <c r="O92" s="47"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="85"/>
+      <c r="O92" s="63"/>
+      <c r="P92" s="68"/>
+      <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
+      <c r="S92" s="68"/>
       <c r="T92" s="78"/>
     </row>
-    <row r="93" spans="1:20" s="51" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="95"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="93"/>
+    <row r="93" spans="1:20" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="62"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
-      <c r="H93" s="91"/>
-      <c r="I93" s="91"/>
-      <c r="J93" s="78"/>
-      <c r="K93" s="96"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="87"/>
       <c r="L93" s="62"/>
-      <c r="M93" s="93"/>
-      <c r="N93" s="93"/>
-      <c r="O93" s="47"/>
+      <c r="M93" s="92"/>
+      <c r="N93" s="92"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="68"/>
+      <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
-      <c r="T93" s="78"/>
+      <c r="S93" s="68"/>
     </row>
     <row r="94" spans="1:20" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="62"/>
       <c r="B94" s="62"/>
-      <c r="C94" s="91"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
-      <c r="H94" s="91"/>
-      <c r="I94" s="91"/>
-      <c r="K94" s="96"/>
+      <c r="H94" s="62"/>
+      <c r="I94" s="62"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="87"/>
       <c r="L94" s="62"/>
-      <c r="M94" s="94"/>
-      <c r="N94" s="94"/>
+      <c r="M94" s="92"/>
+      <c r="N94" s="92"/>
+      <c r="O94" s="63"/>
+      <c r="P94" s="68"/>
+      <c r="Q94" s="13"/>
       <c r="R94" s="13"/>
+      <c r="S94" s="68"/>
     </row>
     <row r="95" spans="1:20" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="62"/>
       <c r="B95" s="62"/>
-      <c r="C95" s="91"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
-      <c r="H95" s="91"/>
-      <c r="I95" s="91"/>
-      <c r="K95" s="96"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="62"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="87"/>
       <c r="L95" s="62"/>
-      <c r="M95" s="94"/>
-      <c r="N95" s="94"/>
+      <c r="M95" s="92"/>
+      <c r="N95" s="92"/>
+      <c r="O95" s="63"/>
+      <c r="P95" s="68"/>
+      <c r="Q95" s="13"/>
       <c r="R95" s="13"/>
+      <c r="S95" s="68"/>
     </row>
     <row r="96" spans="1:20" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="62"/>
       <c r="B96" s="62"/>
-      <c r="C96" s="91"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
-      <c r="K96" s="96"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="62"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="87"/>
       <c r="L96" s="62"/>
-      <c r="M96" s="94"/>
-      <c r="N96" s="94"/>
+      <c r="M96" s="92"/>
+      <c r="N96" s="92"/>
+      <c r="O96" s="63"/>
+      <c r="P96" s="68"/>
+      <c r="Q96" s="13"/>
       <c r="R96" s="13"/>
+      <c r="S96" s="68"/>
     </row>
     <row r="97" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="62"/>
       <c r="B97" s="62"/>
-      <c r="C97" s="91"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
-      <c r="H97" s="91"/>
-      <c r="I97" s="91"/>
-      <c r="K97" s="96"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="87"/>
       <c r="L97" s="62"/>
-      <c r="M97" s="94"/>
-      <c r="N97" s="94"/>
+      <c r="M97" s="92"/>
+      <c r="N97" s="92"/>
+      <c r="O97" s="63"/>
+      <c r="P97" s="68"/>
+      <c r="Q97" s="13"/>
       <c r="R97" s="13"/>
+      <c r="S97" s="68"/>
     </row>
     <row r="98" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="62"/>
       <c r="B98" s="62"/>
       <c r="C98" s="62"/>
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
       <c r="H98" s="62"/>
       <c r="I98" s="62"/>
-      <c r="K98" s="96"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="87"/>
       <c r="L98" s="62"/>
-      <c r="M98" s="94"/>
-      <c r="N98" s="94"/>
+      <c r="M98" s="92"/>
+      <c r="N98" s="92"/>
+      <c r="O98" s="63"/>
+      <c r="P98" s="68"/>
+      <c r="Q98" s="13"/>
       <c r="R98" s="13"/>
+      <c r="S98" s="68"/>
     </row>
     <row r="99" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="62"/>
       <c r="B99" s="62"/>
       <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
       <c r="H99" s="62"/>
       <c r="I99" s="62"/>
-      <c r="K99" s="96"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="87"/>
       <c r="L99" s="62"/>
-      <c r="M99" s="94"/>
-      <c r="N99" s="94"/>
+      <c r="M99" s="92"/>
+      <c r="N99" s="92"/>
+      <c r="O99" s="63"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="13"/>
       <c r="R99" s="13"/>
+      <c r="S99" s="68"/>
     </row>
     <row r="100" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="62"/>
       <c r="B100" s="62"/>
       <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="62"/>
       <c r="I100" s="62"/>
-      <c r="K100" s="96"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="87"/>
       <c r="L100" s="62"/>
-      <c r="M100" s="94"/>
-      <c r="N100" s="94"/>
+      <c r="M100" s="92"/>
+      <c r="N100" s="92"/>
+      <c r="O100" s="63"/>
+      <c r="P100" s="68"/>
+      <c r="Q100" s="13"/>
       <c r="R100" s="13"/>
+      <c r="S100" s="68"/>
     </row>
     <row r="101" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="62"/>
       <c r="B101" s="62"/>
       <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
       <c r="H101" s="62"/>
       <c r="I101" s="62"/>
-      <c r="K101" s="96"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="87"/>
       <c r="L101" s="62"/>
-      <c r="M101" s="94"/>
-      <c r="N101" s="94"/>
+      <c r="M101" s="92"/>
+      <c r="N101" s="92"/>
+      <c r="O101" s="63"/>
+      <c r="P101" s="68"/>
+      <c r="Q101" s="13"/>
       <c r="R101" s="13"/>
-    </row>
-    <row r="102" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S101" s="68"/>
+    </row>
+    <row r="102" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="62"/>
       <c r="B102" s="62"/>
       <c r="C102" s="62"/>
@@ -5607,27 +6101,27 @@
       <c r="G102" s="13"/>
       <c r="H102" s="62"/>
       <c r="I102" s="62"/>
-      <c r="K102" s="96"/>
+      <c r="K102" s="87"/>
       <c r="L102" s="62"/>
-      <c r="M102" s="94"/>
-      <c r="N102" s="94"/>
+      <c r="M102" s="92"/>
+      <c r="N102" s="92"/>
+      <c r="P102" s="68"/>
+      <c r="Q102" s="13"/>
       <c r="R102" s="13"/>
+      <c r="S102" s="68"/>
     </row>
     <row r="103" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="62"/>
       <c r="B103" s="62"/>
       <c r="C103" s="62"/>
-      <c r="D103" s="78"/>
-      <c r="E103" s="78"/>
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
       <c r="H103" s="62"/>
       <c r="I103" s="62"/>
-      <c r="J103" s="78"/>
-      <c r="K103" s="96"/>
+      <c r="K103" s="87"/>
       <c r="L103" s="62"/>
-      <c r="M103" s="94"/>
-      <c r="N103" s="94"/>
+      <c r="M103" s="92"/>
+      <c r="N103" s="92"/>
       <c r="P103" s="68"/>
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
@@ -5637,17 +6131,14 @@
       <c r="A104" s="62"/>
       <c r="B104" s="62"/>
       <c r="C104" s="62"/>
-      <c r="D104" s="78"/>
-      <c r="E104" s="78"/>
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
       <c r="H104" s="62"/>
       <c r="I104" s="62"/>
-      <c r="J104" s="78"/>
-      <c r="K104" s="96"/>
+      <c r="K104" s="87"/>
       <c r="L104" s="62"/>
-      <c r="M104" s="94"/>
-      <c r="N104" s="94"/>
+      <c r="M104" s="92"/>
+      <c r="N104" s="92"/>
       <c r="P104" s="68"/>
       <c r="Q104" s="13"/>
       <c r="R104" s="13"/>
@@ -5657,17 +6148,14 @@
       <c r="A105" s="62"/>
       <c r="B105" s="62"/>
       <c r="C105" s="62"/>
-      <c r="D105" s="78"/>
-      <c r="E105" s="78"/>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
       <c r="H105" s="62"/>
       <c r="I105" s="62"/>
-      <c r="J105" s="78"/>
-      <c r="K105" s="96"/>
+      <c r="K105" s="87"/>
       <c r="L105" s="62"/>
-      <c r="M105" s="94"/>
-      <c r="N105" s="94"/>
+      <c r="M105" s="92"/>
+      <c r="N105" s="92"/>
       <c r="P105" s="68"/>
       <c r="Q105" s="13"/>
       <c r="R105" s="13"/>
@@ -5677,17 +6165,14 @@
       <c r="A106" s="62"/>
       <c r="B106" s="62"/>
       <c r="C106" s="62"/>
-      <c r="D106" s="78"/>
-      <c r="E106" s="78"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
       <c r="H106" s="62"/>
       <c r="I106" s="62"/>
-      <c r="J106" s="78"/>
-      <c r="K106" s="96"/>
+      <c r="K106" s="87"/>
       <c r="L106" s="62"/>
-      <c r="M106" s="94"/>
-      <c r="N106" s="94"/>
+      <c r="M106" s="92"/>
+      <c r="N106" s="92"/>
       <c r="P106" s="68"/>
       <c r="Q106" s="13"/>
       <c r="R106" s="13"/>
@@ -5697,17 +6182,14 @@
       <c r="A107" s="62"/>
       <c r="B107" s="62"/>
       <c r="C107" s="62"/>
-      <c r="D107" s="78"/>
-      <c r="E107" s="78"/>
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
       <c r="H107" s="62"/>
       <c r="I107" s="62"/>
-      <c r="J107" s="78"/>
-      <c r="K107" s="96"/>
+      <c r="K107" s="87"/>
       <c r="L107" s="62"/>
-      <c r="M107" s="94"/>
-      <c r="N107" s="94"/>
+      <c r="M107" s="92"/>
+      <c r="N107" s="92"/>
       <c r="P107" s="68"/>
       <c r="Q107" s="13"/>
       <c r="R107" s="13"/>
@@ -5717,17 +6199,14 @@
       <c r="A108" s="62"/>
       <c r="B108" s="62"/>
       <c r="C108" s="62"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="78"/>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
       <c r="H108" s="62"/>
       <c r="I108" s="62"/>
-      <c r="J108" s="78"/>
-      <c r="K108" s="96"/>
+      <c r="K108" s="87"/>
       <c r="L108" s="62"/>
-      <c r="M108" s="94"/>
-      <c r="N108" s="94"/>
+      <c r="M108" s="92"/>
+      <c r="N108" s="92"/>
       <c r="P108" s="68"/>
       <c r="Q108" s="13"/>
       <c r="R108" s="13"/>
@@ -5737,17 +6216,14 @@
       <c r="A109" s="62"/>
       <c r="B109" s="62"/>
       <c r="C109" s="62"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="100"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
       <c r="H109" s="62"/>
       <c r="I109" s="62"/>
-      <c r="J109" s="78"/>
-      <c r="K109" s="96"/>
+      <c r="K109" s="87"/>
       <c r="L109" s="62"/>
-      <c r="M109" s="94"/>
-      <c r="N109" s="94"/>
+      <c r="M109" s="92"/>
+      <c r="N109" s="92"/>
       <c r="P109" s="68"/>
       <c r="Q109" s="13"/>
       <c r="R109" s="13"/>
@@ -5757,17 +6233,14 @@
       <c r="A110" s="62"/>
       <c r="B110" s="62"/>
       <c r="C110" s="62"/>
-      <c r="D110" s="78"/>
-      <c r="E110" s="78"/>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
       <c r="H110" s="62"/>
       <c r="I110" s="62"/>
-      <c r="J110" s="78"/>
-      <c r="K110" s="96"/>
+      <c r="K110" s="87"/>
       <c r="L110" s="62"/>
-      <c r="M110" s="94"/>
-      <c r="N110" s="94"/>
+      <c r="M110" s="92"/>
+      <c r="N110" s="92"/>
       <c r="P110" s="68"/>
       <c r="Q110" s="13"/>
       <c r="R110" s="13"/>
@@ -5777,45 +6250,30 @@
       <c r="A111" s="62"/>
       <c r="B111" s="62"/>
       <c r="C111" s="62"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="78"/>
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
       <c r="H111" s="62"/>
       <c r="I111" s="62"/>
-      <c r="J111" s="78"/>
-      <c r="K111" s="96"/>
+      <c r="K111" s="87"/>
       <c r="L111" s="62"/>
-      <c r="M111" s="94"/>
-      <c r="N111" s="94"/>
+      <c r="M111" s="92"/>
+      <c r="N111" s="92"/>
       <c r="P111" s="68"/>
       <c r="Q111" s="13"/>
       <c r="R111" s="13"/>
       <c r="S111" s="68"/>
     </row>
-    <row r="112" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="62"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="62"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="62"/>
-      <c r="J112" s="78"/>
-      <c r="K112" s="96"/>
-      <c r="L112" s="62"/>
-      <c r="M112" s="94"/>
-      <c r="N112" s="94"/>
-      <c r="P112" s="68"/>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="13"/>
-      <c r="S112" s="68"/>
-    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A32:S32"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A22:S22"/>
+    <mergeCell ref="A30:S30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -5823,23 +6281,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="145"/>
-    <col min="4" max="4" width="28.85546875" style="133" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="145" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="145" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="145" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="145" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" style="145" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="133"/>
+    <col min="4" max="4" width="28.85546875" style="121" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="133" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="133" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="133" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="133" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" style="133" customWidth="1"/>
     <col min="11" max="11" width="57.140625" style="59" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="115" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="103" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="13" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" style="13" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" style="13" customWidth="1"/>
@@ -5848,73 +6306,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139"/>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="107"/>
+      <c r="A1" s="127"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="108"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="75"/>
       <c r="N2" s="75"/>
       <c r="O2" s="75"/>
       <c r="P2" s="75"/>
     </row>
     <row r="3" spans="1:16" s="50" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="E3" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="116" t="s">
+      <c r="J3" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="109" t="s">
-        <v>72</v>
+      <c r="L3" s="97" t="s">
+        <v>71</v>
       </c>
       <c r="M3" s="48" t="s">
         <v>45</v>
@@ -5930,1891 +6388,1959 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="119">
+      <c r="A4" s="107">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="120">
+      <c r="B4" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="108">
         <v>1</v>
       </c>
-      <c r="D4" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="119" t="s">
+      <c r="D4" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="105">
+        <v>43476.541666666664</v>
+      </c>
+      <c r="G4" s="105">
+        <v>43476.625</v>
+      </c>
+      <c r="H4" s="105">
+        <v>43476.625</v>
+      </c>
+      <c r="I4" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="117">
-        <v>43476.541666666664</v>
-      </c>
-      <c r="G4" s="117">
-        <v>43476.625</v>
-      </c>
-      <c r="H4" s="117">
-        <v>43476.625</v>
-      </c>
-      <c r="I4" s="119" t="s">
+      <c r="J4" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="K4" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="110"/>
+      <c r="L4" s="98"/>
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
       <c r="O4" s="65"/>
       <c r="P4" s="65"/>
     </row>
     <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107">
         <v>2</v>
       </c>
-      <c r="D5" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="119" t="s">
+      <c r="D5" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="105">
+        <v>43476.625</v>
+      </c>
+      <c r="G5" s="105">
+        <v>43476.6875</v>
+      </c>
+      <c r="H5" s="105">
+        <v>43476.6875</v>
+      </c>
+      <c r="I5" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="117">
-        <v>43476.625</v>
-      </c>
-      <c r="G5" s="117">
-        <v>43476.6875</v>
-      </c>
-      <c r="H5" s="117">
-        <v>43476.6875</v>
-      </c>
-      <c r="I5" s="119" t="s">
+      <c r="J5" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="L5" s="110"/>
+      <c r="K5" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="98"/>
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107">
         <v>3</v>
       </c>
-      <c r="D6" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="119" t="s">
+      <c r="D6" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="105">
+        <v>43476.6875</v>
+      </c>
+      <c r="G6" s="105">
+        <v>43476.708333333336</v>
+      </c>
+      <c r="H6" s="105">
+        <v>43476.708333333336</v>
+      </c>
+      <c r="I6" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="117">
-        <v>43476.6875</v>
-      </c>
-      <c r="G6" s="117">
-        <v>43476.708333333336</v>
-      </c>
-      <c r="H6" s="117">
-        <v>43476.708333333336</v>
-      </c>
-      <c r="I6" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="119" t="s">
+      <c r="J6" s="107" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="K6" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="110"/>
+      <c r="L6" s="98"/>
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
       <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="110"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
       <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="119">
+      <c r="A8" s="107">
         <v>2</v>
       </c>
-      <c r="B8" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="119">
+      <c r="B8" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="107">
         <v>1</v>
       </c>
-      <c r="D8" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="119" t="s">
+      <c r="D8" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="105">
+        <v>43507.375</v>
+      </c>
+      <c r="G8" s="105">
+        <v>43507.416666666664</v>
+      </c>
+      <c r="H8" s="105">
+        <v>43507.416666666664</v>
+      </c>
+      <c r="I8" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="117">
-        <v>43507.375</v>
-      </c>
-      <c r="G8" s="117">
-        <v>43507.416666666664</v>
-      </c>
-      <c r="H8" s="117">
-        <v>43507.416666666664</v>
-      </c>
-      <c r="I8" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="110"/>
+      <c r="J8" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="98"/>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
       <c r="O8" s="47"/>
       <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="119"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107">
         <v>2</v>
       </c>
-      <c r="D9" s="121" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="119" t="s">
+      <c r="D9" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="105">
+        <v>43507.416666666664</v>
+      </c>
+      <c r="G9" s="105">
+        <v>43507.5</v>
+      </c>
+      <c r="H9" s="105">
+        <v>43507.520833333336</v>
+      </c>
+      <c r="I9" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="117">
-        <v>43507.416666666664</v>
-      </c>
-      <c r="G9" s="117">
-        <v>43507.5</v>
-      </c>
-      <c r="H9" s="117">
-        <v>43507.520833333336</v>
-      </c>
-      <c r="I9" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="L9" s="110"/>
+      <c r="J9" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="98"/>
       <c r="M9" s="47"/>
       <c r="N9" s="47"/>
       <c r="O9" s="47"/>
       <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="119"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107">
         <v>3</v>
       </c>
-      <c r="D10" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="119" t="s">
+      <c r="D10" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="105">
+        <v>43507.5625</v>
+      </c>
+      <c r="G10" s="105">
+        <v>43507.604166666664</v>
+      </c>
+      <c r="H10" s="105">
+        <v>43507.645833333336</v>
+      </c>
+      <c r="I10" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="117">
-        <v>43507.5625</v>
-      </c>
-      <c r="G10" s="117">
-        <v>43507.604166666664</v>
-      </c>
-      <c r="H10" s="117">
-        <v>43507.645833333336</v>
-      </c>
-      <c r="I10" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="119" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="110"/>
+      <c r="J10" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="98"/>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
       <c r="O10" s="47"/>
       <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="119"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107">
         <v>4</v>
       </c>
-      <c r="D11" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="119" t="s">
+      <c r="D11" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="105">
+        <v>43507.645833333336</v>
+      </c>
+      <c r="G11" s="105">
+        <v>43507.677083333336</v>
+      </c>
+      <c r="H11" s="105">
+        <v>43507.6875</v>
+      </c>
+      <c r="I11" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="117">
-        <v>43507.645833333336</v>
-      </c>
-      <c r="G11" s="117">
-        <v>43507.677083333336</v>
-      </c>
-      <c r="H11" s="117">
-        <v>43507.6875</v>
-      </c>
-      <c r="I11" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="119" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="118" t="s">
+      <c r="J11" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="110"/>
+      <c r="K11" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="98"/>
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
       <c r="O11" s="47"/>
       <c r="P11" s="47"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="110"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
       <c r="O12" s="47"/>
       <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="119">
+      <c r="A13" s="107">
         <v>3</v>
       </c>
-      <c r="B13" s="119" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="119">
+      <c r="B13" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="107">
         <v>1</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="117">
+      <c r="F13" s="105">
         <v>43507.6875</v>
       </c>
-      <c r="G13" s="117">
+      <c r="G13" s="105">
         <v>43566.645833333336</v>
       </c>
-      <c r="H13" s="117">
+      <c r="H13" s="105">
         <v>43566.708333333336</v>
       </c>
-      <c r="I13" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="110"/>
+      <c r="I13" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="98"/>
       <c r="M13" s="65"/>
       <c r="N13" s="65"/>
       <c r="O13" s="65"/>
       <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="119"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119">
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107">
         <v>2</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="105">
+        <v>43566.708333333336</v>
+      </c>
+      <c r="G14" s="105">
+        <v>43566.75</v>
+      </c>
+      <c r="H14" s="105">
+        <v>43566.75</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="117">
-        <v>43566.708333333336</v>
-      </c>
-      <c r="G14" s="117">
-        <v>43566.75</v>
-      </c>
-      <c r="H14" s="117">
-        <v>43566.75</v>
-      </c>
-      <c r="I14" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="110"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="54"/>
       <c r="N14" s="54"/>
       <c r="O14" s="54"/>
       <c r="P14" s="54"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107">
         <v>3</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="105">
+        <v>43596.375</v>
+      </c>
+      <c r="G15" s="105">
+        <v>43596.520833333336</v>
+      </c>
+      <c r="H15" s="105">
+        <v>43596.541666666664</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="117">
-        <v>43596.375</v>
-      </c>
-      <c r="G15" s="117">
-        <v>43596.520833333336</v>
-      </c>
-      <c r="H15" s="117">
-        <v>43596.541666666664</v>
-      </c>
-      <c r="I15" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" s="110"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="54"/>
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
       <c r="P15" s="54"/>
     </row>
     <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119">
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107">
         <v>4</v>
       </c>
-      <c r="D16" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="117">
+      <c r="D16" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="105">
         <v>43596.666666666664</v>
       </c>
-      <c r="G16" s="117">
+      <c r="G16" s="105">
         <v>43596.75</v>
       </c>
-      <c r="H16" s="117">
-        <v>43596.75</v>
-      </c>
-      <c r="I16" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="L16" s="110"/>
+      <c r="H16" s="105">
+        <v>43596.770833333336</v>
+      </c>
+      <c r="I16" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="98"/>
       <c r="M16" s="54"/>
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
       <c r="P16" s="54"/>
     </row>
     <row r="17" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="119"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119">
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107">
         <v>5</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="105">
+        <v>43627.375</v>
+      </c>
+      <c r="G17" s="105">
+        <v>43627.541666666664</v>
+      </c>
+      <c r="H17" s="105">
+        <v>43627.5625</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="117">
-        <v>43627.375</v>
-      </c>
-      <c r="G17" s="117">
-        <v>43627.541666666664</v>
-      </c>
-      <c r="H17" s="117">
-        <v>43627.5625</v>
-      </c>
-      <c r="I17" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J17" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="111"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="54"/>
       <c r="N17" s="54"/>
       <c r="O17" s="54"/>
       <c r="P17" s="54"/>
     </row>
     <row r="18" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="119"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119">
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107">
         <v>6</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="105">
+        <v>43627.604166666664</v>
+      </c>
+      <c r="G18" s="105">
+        <v>43627.645833333336</v>
+      </c>
+      <c r="H18" s="105">
+        <v>43627.635416666664</v>
+      </c>
+      <c r="I18" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="117">
-        <v>43627.604166666664</v>
-      </c>
-      <c r="G18" s="117">
-        <v>43627.645833333336</v>
-      </c>
-      <c r="H18" s="117">
-        <v>43627.635416666664</v>
-      </c>
-      <c r="I18" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="119" t="s">
+      <c r="K18" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="L18" s="111"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="54"/>
       <c r="N18" s="54"/>
       <c r="O18" s="54"/>
       <c r="P18" s="54"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="119"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119">
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107">
         <v>7</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="105">
+        <v>43627.635416666664</v>
+      </c>
+      <c r="G19" s="105">
+        <v>43627.75</v>
+      </c>
+      <c r="H19" s="105">
+        <v>43627.75</v>
+      </c>
+      <c r="I19" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="117">
-        <v>43627.635416666664</v>
-      </c>
-      <c r="G19" s="117">
-        <v>43627.75</v>
-      </c>
-      <c r="H19" s="117">
-        <v>43627.75</v>
-      </c>
-      <c r="I19" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="111"/>
+      <c r="K19" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="99"/>
       <c r="M19" s="52"/>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
     </row>
     <row r="20" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="119"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119">
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107">
         <v>8</v>
       </c>
-      <c r="D20" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="119" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="117">
+      <c r="D20" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="105">
         <v>43657.375</v>
       </c>
-      <c r="G20" s="117">
+      <c r="G20" s="105">
         <v>43657.9375</v>
       </c>
-      <c r="H20" s="117">
+      <c r="H20" s="105">
         <v>43657.9375</v>
       </c>
-      <c r="I20" s="119" t="s">
+      <c r="I20" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="111"/>
+      <c r="K20" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="99"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52"/>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="111"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="99"/>
       <c r="M21" s="52"/>
       <c r="N21" s="52"/>
       <c r="O21" s="52"/>
       <c r="P21" s="52"/>
     </row>
     <row r="22" spans="1:16" s="64" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="119">
+      <c r="A22" s="107">
         <v>4</v>
       </c>
-      <c r="B22" s="119" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="119">
+      <c r="B22" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="107">
         <v>1</v>
       </c>
-      <c r="D22" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="117">
+      <c r="D22" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="105">
         <v>43507.6875</v>
       </c>
-      <c r="G22" s="117">
+      <c r="G22" s="105">
         <v>43566.645833333336</v>
       </c>
-      <c r="H22" s="117">
+      <c r="H22" s="105">
         <v>43566.666666666664</v>
       </c>
-      <c r="I22" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="K22" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="L22" s="110"/>
+      <c r="I22" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="98"/>
       <c r="M22" s="65"/>
       <c r="N22" s="65"/>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
     </row>
     <row r="23" spans="1:16" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="119"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119">
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107">
         <v>2</v>
       </c>
-      <c r="D23" s="121" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="117">
+      <c r="D23" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="105">
         <v>43566.666666666664</v>
       </c>
-      <c r="G23" s="117">
+      <c r="G23" s="105">
         <v>43566.75</v>
       </c>
-      <c r="H23" s="117">
+      <c r="H23" s="105">
         <v>43566.75</v>
       </c>
-      <c r="I23" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="L23" s="110"/>
+      <c r="I23" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="98"/>
       <c r="M23" s="54"/>
       <c r="N23" s="54"/>
       <c r="O23" s="54"/>
       <c r="P23" s="54"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="119"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119">
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107">
         <v>3</v>
       </c>
-      <c r="D24" s="121" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" s="117">
+      <c r="D24" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="105">
         <v>43596.375</v>
       </c>
-      <c r="G24" s="117">
+      <c r="G24" s="105">
         <v>43596.520833333336</v>
       </c>
-      <c r="H24" s="117">
+      <c r="H24" s="105">
         <v>43596.541666666664</v>
       </c>
-      <c r="I24" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="119" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" s="118" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="110"/>
+      <c r="I24" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="98"/>
       <c r="M24" s="54"/>
       <c r="N24" s="54"/>
       <c r="O24" s="54"/>
       <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="119"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="119">
+      <c r="A25" s="107"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107">
         <v>4</v>
       </c>
-      <c r="D25" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="117">
+      <c r="D25" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="105">
         <v>43596.666666666664</v>
       </c>
-      <c r="G25" s="117">
+      <c r="G25" s="105">
         <v>43596.75</v>
       </c>
-      <c r="H25" s="117">
-        <v>43596.75</v>
-      </c>
-      <c r="I25" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="L25" s="110"/>
+      <c r="H25" s="105">
+        <v>43596.770833333336</v>
+      </c>
+      <c r="I25" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="98"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
       <c r="O25" s="54"/>
       <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="119"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119">
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107">
         <v>5</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="105">
+        <v>43627.375</v>
+      </c>
+      <c r="G26" s="105">
+        <v>43627.541666666664</v>
+      </c>
+      <c r="H26" s="105">
+        <v>43627.5625</v>
+      </c>
+      <c r="I26" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="117">
-        <v>43627.375</v>
-      </c>
-      <c r="G26" s="117">
-        <v>43627.541666666664</v>
-      </c>
-      <c r="H26" s="117">
-        <v>43627.5625</v>
-      </c>
-      <c r="I26" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="K26" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="111"/>
+      <c r="L26" s="99"/>
       <c r="M26" s="54"/>
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
       <c r="P26" s="54"/>
     </row>
     <row r="27" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="119"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119">
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107">
         <v>6</v>
       </c>
-      <c r="D27" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" s="117">
+      <c r="D27" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="105">
         <v>43627.604166666664</v>
       </c>
-      <c r="G27" s="117">
+      <c r="G27" s="105">
         <v>43627.645833333336</v>
       </c>
-      <c r="H27" s="117">
+      <c r="H27" s="105">
         <v>43627.645833333336</v>
       </c>
-      <c r="I27" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="K27" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="L27" s="111"/>
+      <c r="I27" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="99"/>
       <c r="M27" s="54"/>
       <c r="N27" s="54"/>
       <c r="O27" s="54"/>
       <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="119"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119">
+      <c r="A28" s="107"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107">
         <v>7</v>
       </c>
-      <c r="D28" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="117">
+      <c r="D28" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="105">
         <v>43627.645833333336</v>
       </c>
-      <c r="G28" s="117">
+      <c r="G28" s="105">
         <v>43627.75</v>
       </c>
-      <c r="H28" s="117">
+      <c r="H28" s="105">
         <v>43627.75</v>
       </c>
-      <c r="I28" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="111"/>
+      <c r="I28" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="99"/>
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
       <c r="O28" s="52"/>
       <c r="P28" s="52"/>
     </row>
     <row r="29" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119">
+      <c r="A29" s="107"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107">
         <v>8</v>
       </c>
-      <c r="D29" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="117">
+      <c r="D29" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="105">
         <v>43657.375</v>
       </c>
-      <c r="G29" s="117">
+      <c r="G29" s="105">
         <v>43657.9375</v>
       </c>
-      <c r="H29" s="117">
+      <c r="H29" s="105">
         <v>43657.9375</v>
       </c>
-      <c r="I29" s="119" t="s">
+      <c r="I29" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="J29" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="L29" s="111"/>
+      <c r="K29" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="99"/>
       <c r="M29" s="52"/>
       <c r="N29" s="52"/>
       <c r="O29" s="52"/>
       <c r="P29" s="52"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="142"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
     </row>
     <row r="31" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="119">
+      <c r="A31" s="107">
         <v>5</v>
       </c>
-      <c r="B31" s="119" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="119">
+      <c r="B31" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="107">
         <v>1</v>
       </c>
-      <c r="D31" s="121" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="117">
+      <c r="D31" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="105">
         <v>43507.6875</v>
       </c>
-      <c r="G31" s="117">
+      <c r="G31" s="105">
         <v>43566.645833333336</v>
       </c>
-      <c r="H31" s="117">
+      <c r="H31" s="105">
         <v>43566.708333333336</v>
       </c>
-      <c r="I31" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="119" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="L31" s="110"/>
+      <c r="I31" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="L31" s="98"/>
       <c r="M31" s="65"/>
       <c r="N31" s="65"/>
       <c r="O31" s="65"/>
       <c r="P31" s="65"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="119"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119">
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107">
         <v>2</v>
       </c>
-      <c r="D32" s="121" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="117">
+      <c r="D32" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="105">
         <v>43566.708333333336</v>
       </c>
-      <c r="G32" s="117">
+      <c r="G32" s="105">
         <v>43566.75</v>
       </c>
-      <c r="H32" s="117">
+      <c r="H32" s="105">
         <v>43566.75</v>
       </c>
-      <c r="I32" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="L32" s="110"/>
+      <c r="I32" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32" s="98"/>
       <c r="M32" s="54"/>
       <c r="N32" s="54"/>
       <c r="O32" s="54"/>
       <c r="P32" s="54"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="119"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119">
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107">
         <v>3</v>
       </c>
-      <c r="D33" s="121" t="s">
+      <c r="D33" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="105">
+        <v>43596.375</v>
+      </c>
+      <c r="G33" s="105">
+        <v>43596.520833333336</v>
+      </c>
+      <c r="H33" s="105">
+        <v>43596.541666666664</v>
+      </c>
+      <c r="I33" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="117">
-        <v>43596.375</v>
-      </c>
-      <c r="G33" s="117">
-        <v>43596.520833333336</v>
-      </c>
-      <c r="H33" s="117">
-        <v>43596.541666666664</v>
-      </c>
-      <c r="I33" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="119" t="s">
-        <v>130</v>
-      </c>
-      <c r="K33" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="L33" s="110"/>
+      <c r="L33" s="98"/>
       <c r="M33" s="54"/>
       <c r="N33" s="54"/>
       <c r="O33" s="54"/>
       <c r="P33" s="54"/>
     </row>
     <row r="34" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="119"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119">
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107">
         <v>4</v>
       </c>
-      <c r="D34" s="121" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="117">
+      <c r="D34" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="105">
         <v>43596.666666666664</v>
       </c>
-      <c r="G34" s="117">
+      <c r="G34" s="105">
         <v>43596.75</v>
       </c>
-      <c r="H34" s="117">
-        <v>43596.75</v>
-      </c>
-      <c r="I34" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K34" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="L34" s="110"/>
+      <c r="H34" s="105">
+        <v>43596.770833333336</v>
+      </c>
+      <c r="I34" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" s="106" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" s="98"/>
       <c r="M34" s="54"/>
       <c r="N34" s="54"/>
       <c r="O34" s="54"/>
       <c r="P34" s="54"/>
     </row>
     <row r="35" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="119"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119">
+      <c r="A35" s="107"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107">
         <v>5</v>
       </c>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="109" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="105">
+        <v>43627.375</v>
+      </c>
+      <c r="G35" s="105">
+        <v>43627.541666666664</v>
+      </c>
+      <c r="H35" s="105">
+        <v>43627.5625</v>
+      </c>
+      <c r="I35" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="117">
-        <v>43627.375</v>
-      </c>
-      <c r="G35" s="117">
-        <v>43627.541666666664</v>
-      </c>
-      <c r="H35" s="117">
-        <v>43627.5625</v>
-      </c>
-      <c r="I35" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="L35" s="111"/>
+      <c r="L35" s="99"/>
       <c r="M35" s="54"/>
       <c r="N35" s="54"/>
       <c r="O35" s="54"/>
       <c r="P35" s="54"/>
     </row>
     <row r="36" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="119"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119">
+      <c r="A36" s="107"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107">
         <v>6</v>
       </c>
-      <c r="D36" s="121" t="s">
+      <c r="D36" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="105">
+        <v>43627.604166666664</v>
+      </c>
+      <c r="G36" s="105">
+        <v>43627.645833333336</v>
+      </c>
+      <c r="H36" s="105">
+        <v>43627.635416666664</v>
+      </c>
+      <c r="I36" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="117">
-        <v>43627.604166666664</v>
-      </c>
-      <c r="G36" s="117">
-        <v>43627.645833333336</v>
-      </c>
-      <c r="H36" s="117">
-        <v>43627.635416666664</v>
-      </c>
-      <c r="I36" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" s="119" t="s">
+      <c r="K36" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="K36" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="L36" s="111"/>
+      <c r="L36" s="99"/>
       <c r="M36" s="54"/>
       <c r="N36" s="54"/>
       <c r="O36" s="54"/>
       <c r="P36" s="54"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="119"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119">
+      <c r="A37" s="107"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107">
         <v>7</v>
       </c>
-      <c r="D37" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="117">
+      <c r="D37" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="105">
         <v>43627.635416666664</v>
       </c>
-      <c r="G37" s="117">
+      <c r="G37" s="105">
         <v>43627.75</v>
       </c>
-      <c r="H37" s="117">
+      <c r="H37" s="105">
         <v>43627.75</v>
       </c>
-      <c r="I37" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J37" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="118" t="s">
-        <v>126</v>
-      </c>
-      <c r="L37" s="111"/>
+      <c r="I37" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="L37" s="99"/>
       <c r="M37" s="52"/>
       <c r="N37" s="52"/>
       <c r="O37" s="52"/>
       <c r="P37" s="52"/>
     </row>
     <row r="38" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="119"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119">
+      <c r="A38" s="107"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107">
         <v>8</v>
       </c>
-      <c r="D38" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="119" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="117">
+      <c r="D38" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="105">
         <v>43657.375</v>
       </c>
-      <c r="G38" s="117">
+      <c r="G38" s="105">
         <v>43657.4375</v>
       </c>
-      <c r="H38" s="117">
+      <c r="H38" s="105">
         <v>43657.4375</v>
       </c>
-      <c r="I38" s="119" t="s">
+      <c r="I38" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="L38" s="111"/>
+      <c r="K38" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="L38" s="99"/>
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="142"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="111"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="99"/>
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
       <c r="P39" s="52"/>
     </row>
     <row r="40" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="142">
+      <c r="A40" s="130">
         <v>6</v>
       </c>
-      <c r="B40" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="142">
+      <c r="B40" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="130">
         <v>1</v>
       </c>
-      <c r="D40" s="124" t="s">
+      <c r="D40" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="105">
+        <v>43657.4375</v>
+      </c>
+      <c r="G40" s="105">
+        <v>43657.541666666664</v>
+      </c>
+      <c r="H40" s="105">
+        <v>43657.5625</v>
+      </c>
+      <c r="I40" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="117">
-        <v>43657.4375</v>
-      </c>
-      <c r="G40" s="117">
-        <v>43657.541666666664</v>
-      </c>
-      <c r="H40" s="117">
-        <v>43657.5625</v>
-      </c>
-      <c r="I40" s="142" t="s">
-        <v>83</v>
-      </c>
-      <c r="J40" s="142" t="s">
-        <v>129</v>
-      </c>
-      <c r="K40" s="136" t="s">
-        <v>131</v>
-      </c>
-      <c r="L40" s="110"/>
+      <c r="L40" s="98"/>
       <c r="M40" s="65"/>
       <c r="N40" s="65"/>
       <c r="O40" s="65"/>
       <c r="P40" s="65"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="119"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119">
+      <c r="A41" s="107"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107">
         <v>2</v>
       </c>
-      <c r="D41" s="121" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="142" t="s">
+      <c r="D41" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="105">
+        <v>43657.604166666664</v>
+      </c>
+      <c r="G41" s="105">
+        <v>43657.6875</v>
+      </c>
+      <c r="H41" s="105">
+        <v>43657.6875</v>
+      </c>
+      <c r="I41" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="117">
-        <v>43657.604166666664</v>
-      </c>
-      <c r="G41" s="117">
-        <v>43657.6875</v>
-      </c>
-      <c r="H41" s="117">
-        <v>43657.6875</v>
-      </c>
-      <c r="I41" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K41" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="L41" s="110"/>
+      <c r="J41" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" s="98"/>
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
       <c r="O41" s="54"/>
       <c r="P41" s="54"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="119"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119">
+      <c r="A42" s="107"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107">
         <v>3</v>
       </c>
-      <c r="D42" s="121" t="s">
+      <c r="D42" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="105">
+        <v>43657.6875</v>
+      </c>
+      <c r="G42" s="105">
+        <v>43657.729166666664</v>
+      </c>
+      <c r="H42" s="105">
+        <v>43657.770833333336</v>
+      </c>
+      <c r="I42" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="142" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="117">
-        <v>43657.6875</v>
-      </c>
-      <c r="G42" s="117">
-        <v>43657.729166666664</v>
-      </c>
-      <c r="H42" s="117">
-        <v>43657.770833333336</v>
-      </c>
-      <c r="I42" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="110"/>
+      <c r="L42" s="98"/>
       <c r="M42" s="54"/>
       <c r="N42" s="54"/>
       <c r="O42" s="54"/>
       <c r="P42" s="54"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="142"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="112"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107">
+        <v>4</v>
+      </c>
+      <c r="D43" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="105">
+        <v>43688.604166666664</v>
+      </c>
+      <c r="G43" s="105">
+        <v>43688.645833333336</v>
+      </c>
+      <c r="H43" s="105">
+        <v>43688.645833333336</v>
+      </c>
+      <c r="I43" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="K43" s="106"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L44" s="112"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="105"/>
-    </row>
-    <row r="45" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="143"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="132" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="143"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107">
+        <v>5</v>
+      </c>
+      <c r="D44" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="105">
+        <v>43657.6875</v>
+      </c>
+      <c r="G44" s="105">
+        <v>43657.729166666664</v>
+      </c>
+      <c r="H44" s="105">
+        <v>43657.770833333336</v>
+      </c>
+      <c r="I44" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="106"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="130"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="93"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="144"/>
-      <c r="B46" s="144"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="119"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="93"/>
+    </row>
+    <row r="47" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="131"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="119"/>
-      <c r="B48" s="119"/>
-      <c r="C48" s="119"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="111"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="119"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="119"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="111"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="99"/>
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
       <c r="O49" s="52"/>
       <c r="P49" s="52"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="119"/>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="111"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="99"/>
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
       <c r="O50" s="52"/>
       <c r="P50" s="52"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="119"/>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="111"/>
+      <c r="A51" s="107"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="99"/>
       <c r="M51" s="52"/>
       <c r="N51" s="52"/>
       <c r="O51" s="52"/>
       <c r="P51" s="52"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="119"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="111"/>
+      <c r="A52" s="107"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="99"/>
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
       <c r="O52" s="52"/>
       <c r="P52" s="52"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="119"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="111"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="99"/>
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
       <c r="O53" s="52"/>
       <c r="P53" s="52"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="119"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="111"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="99"/>
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="119"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="111"/>
+      <c r="A55" s="107"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="99"/>
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
       <c r="O55" s="52"/>
       <c r="P55" s="52"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="119"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="121"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="111"/>
+      <c r="A56" s="107"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="99"/>
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
       <c r="O56" s="52"/>
       <c r="P56" s="52"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="119"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="119"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="111"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="99"/>
       <c r="M57" s="52"/>
       <c r="N57" s="52"/>
       <c r="O57" s="52"/>
       <c r="P57" s="52"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="119"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="121"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="111"/>
+      <c r="A58" s="107"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="99"/>
       <c r="M58" s="52"/>
       <c r="N58" s="52"/>
       <c r="O58" s="52"/>
       <c r="P58" s="52"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="119"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="119"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="119"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="119"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="111"/>
+      <c r="A59" s="107"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
+      <c r="J59" s="107"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="99"/>
       <c r="M59" s="52"/>
       <c r="N59" s="52"/>
       <c r="O59" s="52"/>
       <c r="P59" s="52"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="119"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="118"/>
-      <c r="L60" s="111"/>
+      <c r="A60" s="107"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="107"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="107"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="99"/>
       <c r="M60" s="52"/>
       <c r="N60" s="52"/>
       <c r="O60" s="52"/>
       <c r="P60" s="52"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="119"/>
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="119"/>
-      <c r="I61" s="119"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="111"/>
+      <c r="A61" s="107"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="99"/>
       <c r="M61" s="52"/>
       <c r="N61" s="52"/>
       <c r="O61" s="52"/>
       <c r="P61" s="52"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="119"/>
-      <c r="B62" s="119"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="111"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
+      <c r="J62" s="107"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="99"/>
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
       <c r="O62" s="52"/>
       <c r="P62" s="52"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" s="119"/>
-      <c r="B63" s="119"/>
-      <c r="C63" s="119"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="119"/>
-      <c r="G63" s="119"/>
-      <c r="H63" s="119"/>
-      <c r="I63" s="119"/>
-      <c r="J63" s="119"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="111"/>
+      <c r="A63" s="107"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="99"/>
       <c r="M63" s="52"/>
       <c r="N63" s="52"/>
       <c r="O63" s="52"/>
       <c r="P63" s="52"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="119"/>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="119"/>
-      <c r="G64" s="119"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
-      <c r="J64" s="119"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="111"/>
+      <c r="A64" s="107"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="99"/>
       <c r="M64" s="52"/>
       <c r="N64" s="52"/>
       <c r="O64" s="52"/>
       <c r="P64" s="52"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" s="119"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="121"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="119"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
-      <c r="J65" s="119"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="111"/>
+      <c r="A65" s="107"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="99"/>
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
       <c r="O65" s="52"/>
       <c r="P65" s="52"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" s="119"/>
-      <c r="B66" s="119"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="121"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="119"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="119"/>
-      <c r="I66" s="119"/>
-      <c r="J66" s="119"/>
-      <c r="K66" s="118"/>
-      <c r="L66" s="111"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="107"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="99"/>
       <c r="M66" s="52"/>
       <c r="N66" s="52"/>
       <c r="O66" s="52"/>
       <c r="P66" s="52"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="119"/>
-      <c r="B67" s="119"/>
-      <c r="C67" s="119"/>
-      <c r="D67" s="121"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="119"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="111"/>
+      <c r="A67" s="107"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="99"/>
       <c r="M67" s="52"/>
       <c r="N67" s="52"/>
       <c r="O67" s="52"/>
       <c r="P67" s="52"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="119"/>
-      <c r="B68" s="119"/>
-      <c r="C68" s="119"/>
-      <c r="D68" s="121"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="119"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="119"/>
-      <c r="J68" s="119"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="111"/>
+      <c r="A68" s="107"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="106"/>
+      <c r="L68" s="99"/>
       <c r="M68" s="52"/>
       <c r="N68" s="52"/>
       <c r="O68" s="52"/>
       <c r="P68" s="52"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" s="119"/>
-      <c r="B69" s="119"/>
-      <c r="C69" s="119"/>
-      <c r="D69" s="121"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="119"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="111"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="107"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="99"/>
       <c r="M69" s="52"/>
       <c r="N69" s="52"/>
       <c r="O69" s="52"/>
       <c r="P69" s="52"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="119"/>
-      <c r="B70" s="119"/>
-      <c r="C70" s="119"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="119"/>
-      <c r="G70" s="119"/>
-      <c r="H70" s="119"/>
-      <c r="I70" s="119"/>
-      <c r="J70" s="119"/>
-      <c r="K70" s="118"/>
-      <c r="L70" s="111"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="99"/>
       <c r="M70" s="52"/>
       <c r="N70" s="52"/>
       <c r="O70" s="52"/>
       <c r="P70" s="52"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A71" s="119"/>
-      <c r="B71" s="119"/>
-      <c r="C71" s="119"/>
-      <c r="D71" s="121"/>
-      <c r="E71" s="119"/>
-      <c r="F71" s="119"/>
-      <c r="G71" s="119"/>
-      <c r="H71" s="119"/>
-      <c r="I71" s="119"/>
-      <c r="J71" s="119"/>
-      <c r="K71" s="118"/>
-      <c r="L71" s="111"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="99"/>
       <c r="M71" s="52"/>
       <c r="N71" s="52"/>
       <c r="O71" s="52"/>
       <c r="P71" s="52"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A72" s="119"/>
-      <c r="B72" s="119"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="121"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="119"/>
-      <c r="G72" s="119"/>
-      <c r="H72" s="119"/>
-      <c r="I72" s="119"/>
-      <c r="J72" s="119"/>
-      <c r="K72" s="118"/>
-      <c r="L72" s="111"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="109"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
+      <c r="K72" s="106"/>
+      <c r="L72" s="99"/>
       <c r="M72" s="52"/>
       <c r="N72" s="52"/>
       <c r="O72" s="52"/>
       <c r="P72" s="52"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="119"/>
-      <c r="B73" s="119"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="121"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="119"/>
-      <c r="I73" s="119"/>
-      <c r="J73" s="119"/>
-      <c r="K73" s="118"/>
-      <c r="L73" s="111"/>
+      <c r="A73" s="107"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="99"/>
       <c r="M73" s="52"/>
       <c r="N73" s="52"/>
       <c r="O73" s="52"/>
       <c r="P73" s="52"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A74" s="107"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="109"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="106"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A75" s="107"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="109"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="107"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="99"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
